--- a/_/레벨테이블_003.xlsx
+++ b/_/레벨테이블_003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devtool\project\MTBaseball\MTBaseball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devtool\project\MTBaseball\MTBaseball\_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="레벨테이블 정의 (2)" sheetId="3" r:id="rId1"/>
@@ -588,13 +588,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,6 +604,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,12 +629,6 @@
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:M75"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -961,10 +961,10 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -977,8 +977,8 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="K1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>4000</v>
       </c>
       <c r="D2" s="2">
-        <f>L$9*E2</f>
+        <f t="shared" ref="D2:D33" si="0">L$9*E2</f>
         <v>4000</v>
       </c>
       <c r="E2" s="7">
@@ -1031,19 +1031,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B11" si="0">C2+1</f>
+        <f t="shared" ref="B3:B11" si="1">C2+1</f>
         <v>4001</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C11" si="1">C2+D3</f>
+        <f t="shared" ref="C3:C11" si="2">C2+D3</f>
         <v>8200</v>
       </c>
       <c r="D3" s="2">
-        <f>L$9*E3</f>
+        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E16" si="2">(A3-1)*5 +100</f>
+        <f t="shared" ref="E3:E16" si="3">(A3-1)*5 +100</f>
         <v>105</v>
       </c>
       <c r="F3" s="4">
@@ -1060,7 +1060,7 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M6" si="3">L3/2</f>
+        <f t="shared" ref="M3:M6" si="4">L3/2</f>
         <v>10</v>
       </c>
     </row>
@@ -1069,23 +1069,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
+        <f t="shared" si="1"/>
+        <v>8201</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>8201</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="1"/>
-        <v>12600</v>
-      </c>
-      <c r="D4" s="2">
-        <f>L$9*E4</f>
         <v>4400</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F16" si="4">INT(A4/30)*0.3/100</f>
+        <f t="shared" ref="F4:F16" si="5">INT(A4/30)*0.3/100</f>
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
@@ -1098,7 +1098,7 @@
         <v>40</v>
       </c>
       <c r="M4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N4" s="28" t="s">
@@ -1113,23 +1113,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
+        <f t="shared" si="1"/>
+        <v>12601</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>17200</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>12601</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
-        <v>17200</v>
-      </c>
-      <c r="D5" s="2">
-        <f>L$9*E5</f>
         <v>4600</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
@@ -1142,7 +1142,7 @@
         <v>80</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="N5" s="27">
@@ -1157,23 +1157,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <f t="shared" si="1"/>
+        <v>17201</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>17201</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>22000</v>
-      </c>
-      <c r="D6" s="2">
-        <f>L$9*E6</f>
         <v>4800</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
@@ -1186,7 +1186,7 @@
         <v>160</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="N6" s="28" t="s">
@@ -1203,23 +1203,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>22001</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>27000</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>22001</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>27000</v>
-      </c>
-      <c r="D7" s="2">
-        <f>L$9*E7</f>
         <v>5000</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
@@ -1231,66 +1231,66 @@
         <f>ROUNDUP(SQRT(N5/100+1521/4)-39/2,0)</f>
         <v>83</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>27001</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>32200</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>27001</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>32200</v>
-      </c>
-      <c r="D8" s="2">
-        <f>L$9*E8</f>
         <v>5200</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>32201</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>37600</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>32201</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>37600</v>
-      </c>
-      <c r="D9" s="2">
-        <f>L$9*E9</f>
         <v>5400</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
@@ -1308,23 +1308,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>37601</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>43200</v>
+      </c>
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>37601</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>43200</v>
-      </c>
-      <c r="D10" s="2">
-        <f>L$9*E10</f>
         <v>5600</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
@@ -1336,29 +1336,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>43201</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>49000</v>
+      </c>
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>43201</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>49000</v>
-      </c>
-      <c r="D11" s="2">
-        <f>L$9*E11</f>
         <v>5800</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="33">
         <f>A11</f>
         <v>10</v>
       </c>
@@ -1391,22 +1391,22 @@
         <v>#REF!</v>
       </c>
       <c r="D12" s="2">
-        <f>L$9*E12</f>
+        <f t="shared" si="0"/>
         <v>7800</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="45">
-        <f t="shared" ref="H12:H17" si="5">A12</f>
+      <c r="H12" s="33">
+        <f t="shared" ref="H12:H17" si="6">A12</f>
         <v>20</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -1439,22 +1439,22 @@
         <v>#REF!</v>
       </c>
       <c r="D13" s="2">
-        <f>L$9*E13</f>
+        <f t="shared" si="0"/>
         <v>9800</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="45">
-        <f t="shared" si="5"/>
+      <c r="H13" s="33">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -1487,22 +1487,22 @@
         <v>#REF!</v>
       </c>
       <c r="D14" s="2">
-        <f>L$9*E14</f>
+        <f t="shared" si="0"/>
         <v>11800</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>295</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="45">
-        <f t="shared" si="5"/>
+      <c r="H14" s="33">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -1534,22 +1534,22 @@
         <v>#REF!</v>
       </c>
       <c r="D15" s="2">
-        <f>L$9*E15</f>
+        <f t="shared" si="0"/>
         <v>13800</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="45">
-        <f t="shared" si="5"/>
+      <c r="H15" s="33">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -1581,22 +1581,22 @@
         <v>#REF!</v>
       </c>
       <c r="D16" s="2">
-        <f>L$9*E16</f>
+        <f t="shared" si="0"/>
         <v>15800</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>395</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="45">
-        <f t="shared" si="5"/>
+      <c r="H16" s="33">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -1628,22 +1628,22 @@
         <v>#REF!</v>
       </c>
       <c r="D17" s="2">
-        <f>L$9*E17</f>
+        <f t="shared" si="0"/>
         <v>17800</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" ref="E17:E22" si="6">(A17-1)*5 +100</f>
+        <f t="shared" ref="E17:E22" si="7">(A17-1)*5 +100</f>
         <v>445</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" ref="F17:F23" si="7">INT(A17/30)*0.3/100</f>
+        <f t="shared" ref="F17:F23" si="8">INT(A17/30)*0.3/100</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="45">
-        <f t="shared" si="5"/>
+      <c r="H17" s="33">
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -1675,22 +1675,22 @@
         <v>#REF!</v>
       </c>
       <c r="D18" s="2">
-        <f>L$9*E18</f>
+        <f t="shared" si="0"/>
         <v>19800</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>495</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="45">
-        <f t="shared" ref="H18:H23" si="8">A18</f>
+      <c r="H18" s="33">
+        <f t="shared" ref="H18:H23" si="9">A18</f>
         <v>80</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -1722,22 +1722,22 @@
         <v>#REF!</v>
       </c>
       <c r="D19" s="2">
-        <f>L$9*E19</f>
+        <f t="shared" si="0"/>
         <v>21800</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>545</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="45">
-        <f t="shared" si="8"/>
+      <c r="H19" s="33">
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="I19" s="9" t="s">
@@ -1769,22 +1769,22 @@
         <v>#REF!</v>
       </c>
       <c r="D20" s="2">
-        <f>L$9*E20</f>
+        <f t="shared" si="0"/>
         <v>23800</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>595</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="45">
-        <f t="shared" si="8"/>
+      <c r="H20" s="33">
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -1816,22 +1816,22 @@
         <v>#REF!</v>
       </c>
       <c r="D21" s="2">
-        <f>L$9*E21</f>
+        <f t="shared" si="0"/>
         <v>25800</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>645</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="45">
-        <f t="shared" si="8"/>
+      <c r="H21" s="33">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="I21" s="9" t="s">
@@ -1863,22 +1863,22 @@
         <v>#REF!</v>
       </c>
       <c r="D22" s="2">
-        <f>L$9*E22</f>
+        <f t="shared" si="0"/>
         <v>27800</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>695</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2E-2</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="45">
-        <f t="shared" si="8"/>
+      <c r="H22" s="33">
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -1910,22 +1910,22 @@
         <v>#REF!</v>
       </c>
       <c r="D23" s="2">
-        <f>L$9*E23</f>
+        <f t="shared" si="0"/>
         <v>29800</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E23:E29" si="9">(A23-1)*5 +100</f>
+        <f t="shared" ref="E23:E29" si="10">(A23-1)*5 +100</f>
         <v>745</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2E-2</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="45">
-        <f t="shared" si="8"/>
+      <c r="H23" s="33">
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -1957,22 +1957,22 @@
         <v>#REF!</v>
       </c>
       <c r="D24" s="2">
-        <f>L$9*E24</f>
+        <f t="shared" si="0"/>
         <v>31800</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>795</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" ref="F24:F29" si="10">INT(A24/30)*0.3/100</f>
+        <f t="shared" ref="F24:F29" si="11">INT(A24/30)*0.3/100</f>
         <v>1.2E-2</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="45">
-        <f t="shared" ref="H24:H30" si="11">A24</f>
+      <c r="H24" s="33">
+        <f t="shared" ref="H24:H30" si="12">A24</f>
         <v>140</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -2004,22 +2004,22 @@
         <v>#REF!</v>
       </c>
       <c r="D25" s="2">
-        <f>L$9*E25</f>
+        <f t="shared" si="0"/>
         <v>33800</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>845</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="45">
-        <f t="shared" si="11"/>
+      <c r="H25" s="33">
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -2051,22 +2051,22 @@
         <v>#REF!</v>
       </c>
       <c r="D26" s="2">
-        <f>L$9*E26</f>
+        <f t="shared" si="0"/>
         <v>35800</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>895</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="45">
-        <f t="shared" si="11"/>
+      <c r="H26" s="33">
+        <f t="shared" si="12"/>
         <v>160</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -2098,22 +2098,22 @@
         <v>#REF!</v>
       </c>
       <c r="D27" s="2">
-        <f>L$9*E27</f>
+        <f t="shared" si="0"/>
         <v>37800</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>945</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="45">
-        <f t="shared" si="11"/>
+      <c r="H27" s="33">
+        <f t="shared" si="12"/>
         <v>170</v>
       </c>
       <c r="I27" s="9" t="s">
@@ -2145,22 +2145,22 @@
         <v>#REF!</v>
       </c>
       <c r="D28" s="2">
-        <f>L$9*E28</f>
+        <f t="shared" si="0"/>
         <v>39800</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>995</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="45">
-        <f t="shared" si="11"/>
+      <c r="H28" s="33">
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -2192,22 +2192,22 @@
         <v>#REF!</v>
       </c>
       <c r="D29" s="2">
-        <f>L$9*E29</f>
+        <f t="shared" si="0"/>
         <v>41800</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1045</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="45">
-        <f t="shared" si="11"/>
+      <c r="H29" s="33">
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
       <c r="I29" s="9" t="s">
@@ -2239,22 +2239,22 @@
         <v>#REF!</v>
       </c>
       <c r="D30" s="2">
-        <f>L$9*E30</f>
+        <f t="shared" si="0"/>
         <v>43800</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" ref="E30:E35" si="12">(A30-1)*5 +100</f>
+        <f t="shared" ref="E30:E35" si="13">(A30-1)*5 +100</f>
         <v>1095</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" ref="F30:F35" si="13">INT(A30/30)*0.3/100</f>
+        <f t="shared" ref="F30:F35" si="14">INT(A30/30)*0.3/100</f>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="45">
-        <f t="shared" si="11"/>
+      <c r="H30" s="33">
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="I30" s="9" t="s">
@@ -2286,22 +2286,22 @@
         <v>#REF!</v>
       </c>
       <c r="D31" s="2">
-        <f>L$9*E31</f>
+        <f t="shared" si="0"/>
         <v>45800</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1145</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="45">
-        <f t="shared" ref="H31:H36" si="14">A31</f>
+      <c r="H31" s="33">
+        <f t="shared" ref="H31:H36" si="15">A31</f>
         <v>210</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -2333,22 +2333,22 @@
         <v>#REF!</v>
       </c>
       <c r="D32" s="2">
-        <f>L$9*E32</f>
+        <f t="shared" si="0"/>
         <v>47800</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1195</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="45">
-        <f t="shared" si="14"/>
+      <c r="H32" s="33">
+        <f t="shared" si="15"/>
         <v>220</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -2380,22 +2380,22 @@
         <v>#REF!</v>
       </c>
       <c r="D33" s="2">
-        <f>L$9*E33</f>
+        <f t="shared" si="0"/>
         <v>49800</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1245</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="45">
-        <f t="shared" si="14"/>
+      <c r="H33" s="33">
+        <f t="shared" si="15"/>
         <v>230</v>
       </c>
       <c r="I33" s="9" t="s">
@@ -2427,22 +2427,22 @@
         <v>#REF!</v>
       </c>
       <c r="D34" s="2">
-        <f>L$9*E34</f>
+        <f t="shared" ref="D34:D65" si="16">L$9*E34</f>
         <v>51800</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1295</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.4E-2</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="45">
-        <f t="shared" si="14"/>
+      <c r="H34" s="33">
+        <f t="shared" si="15"/>
         <v>240</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -2474,22 +2474,22 @@
         <v>#REF!</v>
       </c>
       <c r="D35" s="2">
-        <f>L$9*E35</f>
+        <f t="shared" si="16"/>
         <v>53800</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1345</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.4E-2</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="45">
-        <f t="shared" si="14"/>
+      <c r="H35" s="33">
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -2521,22 +2521,22 @@
         <v>#REF!</v>
       </c>
       <c r="D36" s="2">
-        <f>L$9*E36</f>
+        <f t="shared" si="16"/>
         <v>55800</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" ref="E36:E42" si="15">(A36-1)*5 +100</f>
+        <f t="shared" ref="E36:E42" si="17">(A36-1)*5 +100</f>
         <v>1395</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" ref="F36:F42" si="16">INT(A36/30)*0.3/100</f>
+        <f t="shared" ref="F36:F42" si="18">INT(A36/30)*0.3/100</f>
         <v>2.4E-2</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="45">
-        <f t="shared" si="14"/>
+      <c r="H36" s="33">
+        <f t="shared" si="15"/>
         <v>260</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -2568,22 +2568,22 @@
         <v>#REF!</v>
       </c>
       <c r="D37" s="2">
-        <f>L$9*E37</f>
+        <f t="shared" si="16"/>
         <v>57800</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1445</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="45">
-        <f t="shared" ref="H37:H43" si="17">A37</f>
+      <c r="H37" s="33">
+        <f t="shared" ref="H37:H43" si="19">A37</f>
         <v>270</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -2615,22 +2615,22 @@
         <v>#REF!</v>
       </c>
       <c r="D38" s="2">
-        <f>L$9*E38</f>
+        <f t="shared" si="16"/>
         <v>59800</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1495</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="45">
-        <f t="shared" si="17"/>
+      <c r="H38" s="33">
+        <f t="shared" si="19"/>
         <v>280</v>
       </c>
       <c r="I38" s="9" t="s">
@@ -2662,22 +2662,22 @@
         <v>#REF!</v>
       </c>
       <c r="D39" s="2">
-        <f>L$9*E39</f>
+        <f t="shared" si="16"/>
         <v>61800</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1545</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="45">
-        <f t="shared" si="17"/>
+      <c r="H39" s="33">
+        <f t="shared" si="19"/>
         <v>290</v>
       </c>
       <c r="I39" s="9" t="s">
@@ -2709,22 +2709,22 @@
         <v>#REF!</v>
       </c>
       <c r="D40" s="2">
-        <f>L$9*E40</f>
+        <f t="shared" si="16"/>
         <v>63800</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1595</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.03</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="45">
-        <f t="shared" si="17"/>
+      <c r="H40" s="33">
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="I40" s="9" t="s">
@@ -2756,22 +2756,22 @@
         <v>#REF!</v>
       </c>
       <c r="D41" s="2">
-        <f>L$9*E41</f>
+        <f t="shared" si="16"/>
         <v>65800</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1645</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.03</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="45">
-        <f t="shared" si="17"/>
+      <c r="H41" s="33">
+        <f t="shared" si="19"/>
         <v>310</v>
       </c>
       <c r="I41" s="9" t="s">
@@ -2803,22 +2803,22 @@
         <v>#REF!</v>
       </c>
       <c r="D42" s="2">
-        <f>L$9*E42</f>
+        <f t="shared" si="16"/>
         <v>67800</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1695</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.03</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="45">
-        <f t="shared" si="17"/>
+      <c r="H42" s="33">
+        <f t="shared" si="19"/>
         <v>320</v>
       </c>
       <c r="I42" s="9" t="s">
@@ -2850,22 +2850,22 @@
         <v>#REF!</v>
       </c>
       <c r="D43" s="2">
-        <f>L$9*E43</f>
+        <f t="shared" si="16"/>
         <v>69800</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" ref="E43:E48" si="18">(A43-1)*5 +100</f>
+        <f t="shared" ref="E43:E48" si="20">(A43-1)*5 +100</f>
         <v>1745</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" ref="F43:F48" si="19">INT(A43/30)*0.3/100</f>
+        <f t="shared" ref="F43:F48" si="21">INT(A43/30)*0.3/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="45">
-        <f t="shared" si="17"/>
+      <c r="H43" s="33">
+        <f t="shared" si="19"/>
         <v>330</v>
       </c>
       <c r="I43" s="9" t="s">
@@ -2897,22 +2897,22 @@
         <v>#REF!</v>
       </c>
       <c r="D44" s="2">
-        <f>L$9*E44</f>
+        <f t="shared" si="16"/>
         <v>71800</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1795</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="45">
-        <f t="shared" ref="H44:H49" si="20">A44</f>
+      <c r="H44" s="33">
+        <f t="shared" ref="H44:H49" si="22">A44</f>
         <v>340</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -2944,22 +2944,22 @@
         <v>#REF!</v>
       </c>
       <c r="D45" s="2">
-        <f>L$9*E45</f>
+        <f t="shared" si="16"/>
         <v>73800</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1845</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="45">
-        <f t="shared" si="20"/>
+      <c r="H45" s="33">
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="I45" s="9" t="s">
@@ -2991,22 +2991,22 @@
         <v>#REF!</v>
       </c>
       <c r="D46" s="2">
-        <f>L$9*E46</f>
+        <f t="shared" si="16"/>
         <v>75800</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1895</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="45">
-        <f t="shared" si="20"/>
+      <c r="H46" s="33">
+        <f t="shared" si="22"/>
         <v>360</v>
       </c>
       <c r="I46" s="9" t="s">
@@ -3038,22 +3038,22 @@
         <v>#REF!</v>
       </c>
       <c r="D47" s="2">
-        <f>L$9*E47</f>
+        <f t="shared" si="16"/>
         <v>77800</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1945</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="45">
-        <f t="shared" si="20"/>
+      <c r="H47" s="33">
+        <f t="shared" si="22"/>
         <v>370</v>
       </c>
       <c r="I47" s="9" t="s">
@@ -3085,22 +3085,22 @@
         <v>#REF!</v>
       </c>
       <c r="D48" s="2">
-        <f>L$9*E48</f>
+        <f t="shared" si="16"/>
         <v>79800</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1995</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="45">
-        <f t="shared" si="20"/>
+      <c r="H48" s="33">
+        <f t="shared" si="22"/>
         <v>380</v>
       </c>
       <c r="I48" s="9" t="s">
@@ -3132,22 +3132,22 @@
         <v>#REF!</v>
       </c>
       <c r="D49" s="2">
-        <f>L$9*E49</f>
+        <f t="shared" si="16"/>
         <v>81800</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" ref="E49:E54" si="21">(A49-1)*5 +100</f>
+        <f t="shared" ref="E49:E54" si="23">(A49-1)*5 +100</f>
         <v>2045</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" ref="F49:F55" si="22">INT(A49/30)*0.3/100</f>
+        <f t="shared" ref="F49:F55" si="24">INT(A49/30)*0.3/100</f>
         <v>3.9E-2</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="45">
-        <f t="shared" si="20"/>
+      <c r="H49" s="33">
+        <f t="shared" si="22"/>
         <v>390</v>
       </c>
       <c r="I49" s="9" t="s">
@@ -3179,22 +3179,22 @@
         <v>#REF!</v>
       </c>
       <c r="D50" s="2">
-        <f>L$9*E50</f>
+        <f t="shared" si="16"/>
         <v>83800</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2095</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.9E-2</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="45">
-        <f t="shared" ref="H50:H55" si="23">A50</f>
+      <c r="H50" s="33">
+        <f t="shared" ref="H50:H55" si="25">A50</f>
         <v>400</v>
       </c>
       <c r="I50" s="9" t="s">
@@ -3226,22 +3226,22 @@
         <v>#REF!</v>
       </c>
       <c r="D51" s="2">
-        <f>L$9*E51</f>
+        <f t="shared" si="16"/>
         <v>85800</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2145</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.9E-2</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="45">
-        <f t="shared" si="23"/>
+      <c r="H51" s="33">
+        <f t="shared" si="25"/>
         <v>410</v>
       </c>
       <c r="I51" s="9" t="s">
@@ -3273,22 +3273,22 @@
         <v>#REF!</v>
       </c>
       <c r="D52" s="2">
-        <f>L$9*E52</f>
+        <f t="shared" si="16"/>
         <v>87800</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2195</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="45">
-        <f t="shared" si="23"/>
+      <c r="H52" s="33">
+        <f t="shared" si="25"/>
         <v>420</v>
       </c>
       <c r="I52" s="9" t="s">
@@ -3320,22 +3320,22 @@
         <v>#REF!</v>
       </c>
       <c r="D53" s="2">
-        <f>L$9*E53</f>
+        <f t="shared" si="16"/>
         <v>89800</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2245</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="45">
-        <f t="shared" si="23"/>
+      <c r="H53" s="33">
+        <f t="shared" si="25"/>
         <v>430</v>
       </c>
       <c r="I53" s="9" t="s">
@@ -3367,22 +3367,22 @@
         <v>#REF!</v>
       </c>
       <c r="D54" s="2">
-        <f>L$9*E54</f>
+        <f t="shared" si="16"/>
         <v>91800</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2295</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="45">
-        <f t="shared" si="23"/>
+      <c r="H54" s="33">
+        <f t="shared" si="25"/>
         <v>440</v>
       </c>
       <c r="I54" s="9" t="s">
@@ -3414,22 +3414,22 @@
         <v>#REF!</v>
       </c>
       <c r="D55" s="2">
-        <f>L$9*E55</f>
+        <f t="shared" si="16"/>
         <v>93800</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" ref="E55:E61" si="24">(A55-1)*5 +100</f>
+        <f t="shared" ref="E55:E61" si="26">(A55-1)*5 +100</f>
         <v>2345</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="45">
-        <f t="shared" si="23"/>
+      <c r="H55" s="33">
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
       <c r="I55" s="9" t="s">
@@ -3461,22 +3461,22 @@
         <v>#REF!</v>
       </c>
       <c r="D56" s="2">
-        <f>L$9*E56</f>
+        <f t="shared" si="16"/>
         <v>95800</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2395</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" ref="F56:F61" si="25">INT(A56/30)*0.3/100</f>
+        <f t="shared" ref="F56:F61" si="27">INT(A56/30)*0.3/100</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="45">
-        <f t="shared" ref="H56:H62" si="26">A56</f>
+      <c r="H56" s="33">
+        <f t="shared" ref="H56:H62" si="28">A56</f>
         <v>460</v>
       </c>
       <c r="I56" s="9" t="s">
@@ -3508,22 +3508,22 @@
         <v>#REF!</v>
       </c>
       <c r="D57" s="2">
-        <f>L$9*E57</f>
+        <f t="shared" si="16"/>
         <v>97800</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2445</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H57" s="45">
-        <f t="shared" si="26"/>
+      <c r="H57" s="33">
+        <f t="shared" si="28"/>
         <v>470</v>
       </c>
       <c r="I57" s="9" t="s">
@@ -3555,22 +3555,22 @@
         <v>#REF!</v>
       </c>
       <c r="D58" s="2">
-        <f>L$9*E58</f>
+        <f t="shared" si="16"/>
         <v>99600</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2490</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="45">
-        <f t="shared" si="26"/>
+      <c r="H58" s="33">
+        <f t="shared" si="28"/>
         <v>479</v>
       </c>
       <c r="I58" s="9" t="s">
@@ -3602,22 +3602,22 @@
         <v>#REF!</v>
       </c>
       <c r="D59" s="2">
-        <f>L$9*E59</f>
+        <f t="shared" si="16"/>
         <v>101800</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2545</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H59" s="45">
-        <f t="shared" si="26"/>
+      <c r="H59" s="33">
+        <f t="shared" si="28"/>
         <v>490</v>
       </c>
       <c r="I59" s="9" t="s">
@@ -3649,22 +3649,22 @@
         <v>#REF!</v>
       </c>
       <c r="D60" s="2">
-        <f>L$9*E60</f>
+        <f t="shared" si="16"/>
         <v>103800</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2595</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="45">
-        <f t="shared" si="26"/>
+      <c r="H60" s="33">
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I60" s="9" t="s">
@@ -3696,22 +3696,22 @@
         <v>#REF!</v>
       </c>
       <c r="D61" s="2">
-        <f>L$9*E61</f>
+        <f t="shared" si="16"/>
         <v>105800</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2645</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H61" s="45">
-        <f t="shared" si="26"/>
+      <c r="H61" s="33">
+        <f t="shared" si="28"/>
         <v>510</v>
       </c>
       <c r="I61" s="9" t="s">
@@ -3743,22 +3743,22 @@
         <v>#REF!</v>
       </c>
       <c r="D62" s="2">
-        <f>L$9*E62</f>
+        <f t="shared" si="16"/>
         <v>107800</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" ref="E62:E67" si="27">(A62-1)*5 +100</f>
+        <f t="shared" ref="E62:E67" si="29">(A62-1)*5 +100</f>
         <v>2695</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" ref="F62:F67" si="28">INT(A62/30)*0.3/100</f>
+        <f t="shared" ref="F62:F67" si="30">INT(A62/30)*0.3/100</f>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H62" s="45">
-        <f t="shared" si="26"/>
+      <c r="H62" s="33">
+        <f t="shared" si="28"/>
         <v>520</v>
       </c>
       <c r="I62" s="9" t="s">
@@ -3790,22 +3790,22 @@
         <v>#REF!</v>
       </c>
       <c r="D63" s="2">
-        <f>L$9*E63</f>
+        <f t="shared" si="16"/>
         <v>109800</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2745</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H63" s="45">
-        <f t="shared" ref="H63:H68" si="29">A63</f>
+      <c r="H63" s="33">
+        <f t="shared" ref="H63:H68" si="31">A63</f>
         <v>530</v>
       </c>
       <c r="I63" s="9" t="s">
@@ -3837,22 +3837,22 @@
         <v>#REF!</v>
       </c>
       <c r="D64" s="2">
-        <f>L$9*E64</f>
+        <f t="shared" si="16"/>
         <v>111800</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2795</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="45">
-        <f t="shared" si="29"/>
+      <c r="H64" s="33">
+        <f t="shared" si="31"/>
         <v>540</v>
       </c>
       <c r="I64" s="9" t="s">
@@ -3884,22 +3884,22 @@
         <v>#REF!</v>
       </c>
       <c r="D65" s="2">
-        <f>L$9*E65</f>
+        <f t="shared" si="16"/>
         <v>113800</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2845</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="45">
-        <f t="shared" si="29"/>
+      <c r="H65" s="33">
+        <f t="shared" si="31"/>
         <v>550</v>
       </c>
       <c r="I65" s="9" t="s">
@@ -3931,22 +3931,22 @@
         <v>#REF!</v>
       </c>
       <c r="D66" s="2">
-        <f>L$9*E66</f>
+        <f t="shared" ref="D66:D97" si="32">L$9*E66</f>
         <v>115800</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2895</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="45">
-        <f t="shared" si="29"/>
+      <c r="H66" s="33">
+        <f t="shared" si="31"/>
         <v>560</v>
       </c>
       <c r="I66" s="9" t="s">
@@ -3978,22 +3978,22 @@
         <v>#REF!</v>
       </c>
       <c r="D67" s="2">
-        <f>L$9*E67</f>
+        <f t="shared" si="32"/>
         <v>117800</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2945</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="45">
-        <f t="shared" si="29"/>
+      <c r="H67" s="33">
+        <f t="shared" si="31"/>
         <v>570</v>
       </c>
       <c r="I67" s="9" t="s">
@@ -4025,22 +4025,22 @@
         <v>#REF!</v>
       </c>
       <c r="D68" s="2">
-        <f>L$9*E68</f>
+        <f t="shared" si="32"/>
         <v>119800</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" ref="E68:E74" si="30">(A68-1)*5 +100</f>
+        <f t="shared" ref="E68:E74" si="33">(A68-1)*5 +100</f>
         <v>2995</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" ref="F68:F74" si="31">INT(A68/30)*0.3/100</f>
+        <f t="shared" ref="F68:F74" si="34">INT(A68/30)*0.3/100</f>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H68" s="45">
-        <f t="shared" si="29"/>
+      <c r="H68" s="33">
+        <f t="shared" si="31"/>
         <v>580</v>
       </c>
       <c r="I68" s="9" t="s">
@@ -4072,22 +4072,22 @@
         <v>#REF!</v>
       </c>
       <c r="D69" s="2">
-        <f>L$9*E69</f>
+        <f t="shared" si="32"/>
         <v>121800</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3045</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H69" s="45">
-        <f t="shared" ref="H69:H75" si="32">A69</f>
+      <c r="H69" s="33">
+        <f t="shared" ref="H69:H75" si="35">A69</f>
         <v>590</v>
       </c>
       <c r="I69" s="9" t="s">
@@ -4119,22 +4119,22 @@
         <v>#REF!</v>
       </c>
       <c r="D70" s="2">
-        <f>L$9*E70</f>
+        <f t="shared" si="32"/>
         <v>123800</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3095</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.06</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H70" s="45">
-        <f t="shared" si="32"/>
+      <c r="H70" s="33">
+        <f t="shared" si="35"/>
         <v>600</v>
       </c>
       <c r="I70" s="9" t="s">
@@ -4166,22 +4166,22 @@
         <v>#REF!</v>
       </c>
       <c r="D71" s="2">
-        <f>L$9*E71</f>
+        <f t="shared" si="32"/>
         <v>125800</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3145</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.06</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H71" s="45">
-        <f t="shared" si="32"/>
+      <c r="H71" s="33">
+        <f t="shared" si="35"/>
         <v>610</v>
       </c>
       <c r="I71" s="9" t="s">
@@ -4213,22 +4213,22 @@
         <v>#REF!</v>
       </c>
       <c r="D72" s="2">
-        <f>L$9*E72</f>
+        <f t="shared" si="32"/>
         <v>127800</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3195</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.06</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H72" s="45">
-        <f t="shared" si="32"/>
+      <c r="H72" s="33">
+        <f t="shared" si="35"/>
         <v>620</v>
       </c>
       <c r="I72" s="9" t="s">
@@ -4260,22 +4260,22 @@
         <v>#REF!</v>
       </c>
       <c r="D73" s="2">
-        <f>L$9*E73</f>
+        <f t="shared" si="32"/>
         <v>129800</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3245</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.3E-2</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H73" s="45">
-        <f t="shared" si="32"/>
+      <c r="H73" s="33">
+        <f t="shared" si="35"/>
         <v>630</v>
       </c>
       <c r="I73" s="9" t="s">
@@ -4307,22 +4307,22 @@
         <v>#REF!</v>
       </c>
       <c r="D74" s="2">
-        <f>L$9*E74</f>
+        <f t="shared" si="32"/>
         <v>131800</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3295</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.3E-2</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H74" s="45">
-        <f t="shared" si="32"/>
+      <c r="H74" s="33">
+        <f t="shared" si="35"/>
         <v>640</v>
       </c>
       <c r="I74" s="9" t="s">
@@ -4353,22 +4353,22 @@
         <v>53</v>
       </c>
       <c r="D75" s="2">
-        <f>L$9*E75</f>
+        <f t="shared" si="32"/>
         <v>133800</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" ref="E75" si="33">(A75-1)*5 +100</f>
+        <f t="shared" ref="E75" si="36">(A75-1)*5 +100</f>
         <v>3345</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" ref="F75" si="34">INT(A75/30)*0.3/100</f>
+        <f t="shared" ref="F75" si="37">INT(A75/30)*0.3/100</f>
         <v>6.3E-2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H75" s="45">
-        <f t="shared" si="32"/>
+      <c r="H75" s="33">
+        <f t="shared" si="35"/>
         <v>650</v>
       </c>
       <c r="I75" s="9" t="s">
@@ -4404,17 +4404,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R651"/>
   <sheetViews>
-    <sheetView topLeftCell="A510" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H651"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="26.625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="26.625" customWidth="1"/>
     <col min="10" max="10" width="8.75" customWidth="1"/>
@@ -4426,10 +4426,10 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -4442,8 +4442,8 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="K1" s="3" t="s">
         <v>44</v>
       </c>
@@ -4696,11 +4696,11 @@
         <f>ROUNDUP(SQRT(N5/100+1521/4)-39/2,0)</f>
         <v>83</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -4729,10 +4729,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -4823,7 +4823,7 @@
       <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="33">
         <f>A11</f>
         <v>10</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="45">
+      <c r="H12" s="33">
         <f t="shared" ref="H12:H75" si="6">A12</f>
         <v>11</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="45">
+      <c r="H13" s="33">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="45">
+      <c r="H14" s="33">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="45">
+      <c r="H15" s="33">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="45">
+      <c r="H16" s="33">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="45">
+      <c r="H17" s="33">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="45">
+      <c r="H18" s="33">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="45">
+      <c r="H19" s="33">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="45">
+      <c r="H20" s="33">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="G21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="33">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="45">
+      <c r="H22" s="33">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="45">
+      <c r="H23" s="33">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="45">
+      <c r="H24" s="33">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="45">
+      <c r="H25" s="33">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="45">
+      <c r="H26" s="33">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="45">
+      <c r="H27" s="33">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="45">
+      <c r="H28" s="33">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="45">
+      <c r="H29" s="33">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="45">
+      <c r="H30" s="33">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="G31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="33">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="45">
+      <c r="H32" s="33">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="45">
+      <c r="H33" s="33">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="45">
+      <c r="H34" s="33">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="45">
+      <c r="H35" s="33">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="45">
+      <c r="H36" s="33">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="45">
+      <c r="H37" s="33">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="45">
+      <c r="H38" s="33">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="45">
+      <c r="H39" s="33">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="45">
+      <c r="H40" s="33">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="G41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="33">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="45">
+      <c r="H42" s="33">
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="45">
+      <c r="H43" s="33">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="45">
+      <c r="H44" s="33">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="45">
+      <c r="H45" s="33">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="45">
+      <c r="H46" s="33">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="45">
+      <c r="H47" s="33">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="45">
+      <c r="H48" s="33">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="45">
+      <c r="H49" s="33">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="45">
+      <c r="H50" s="33">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="G51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="45">
+      <c r="H51" s="33">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="45">
+      <c r="H52" s="33">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="45">
+      <c r="H53" s="33">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="45">
+      <c r="H54" s="33">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="45">
+      <c r="H55" s="33">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G56" s="1"/>
-      <c r="H56" s="45">
+      <c r="H56" s="33">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="45">
+      <c r="H57" s="33">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="45">
+      <c r="H58" s="33">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="45">
+      <c r="H59" s="33">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="45">
+      <c r="H60" s="33">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="G61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="45">
+      <c r="H61" s="33">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G62" s="1"/>
-      <c r="H62" s="45">
+      <c r="H62" s="33">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="45">
+      <c r="H63" s="33">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="45">
+      <c r="H64" s="33">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="45">
+      <c r="H65" s="33">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="45">
+      <c r="H66" s="33">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="45">
+      <c r="H67" s="33">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G68" s="1"/>
-      <c r="H68" s="45">
+      <c r="H68" s="33">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G69" s="1"/>
-      <c r="H69" s="45">
+      <c r="H69" s="33">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="45">
+      <c r="H70" s="33">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
@@ -6761,7 +6761,7 @@
       <c r="G71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="45">
+      <c r="H71" s="33">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G72" s="1"/>
-      <c r="H72" s="45">
+      <c r="H72" s="33">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G73" s="1"/>
-      <c r="H73" s="45">
+      <c r="H73" s="33">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G74" s="1"/>
-      <c r="H74" s="45">
+      <c r="H74" s="33">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G75" s="1"/>
-      <c r="H75" s="45">
+      <c r="H75" s="33">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G76" s="1"/>
-      <c r="H76" s="45">
+      <c r="H76" s="33">
         <f t="shared" ref="H76:H139" si="16">A76</f>
         <v>75</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G77" s="1"/>
-      <c r="H77" s="45">
+      <c r="H77" s="33">
         <f t="shared" si="16"/>
         <v>76</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G78" s="1"/>
-      <c r="H78" s="45">
+      <c r="H78" s="33">
         <f t="shared" si="16"/>
         <v>77</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G79" s="1"/>
-      <c r="H79" s="45">
+      <c r="H79" s="33">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G80" s="1"/>
-      <c r="H80" s="45">
+      <c r="H80" s="33">
         <f t="shared" si="16"/>
         <v>79</v>
       </c>
@@ -7078,7 +7078,7 @@
       <c r="G81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="45">
+      <c r="H81" s="33">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G82" s="1"/>
-      <c r="H82" s="45">
+      <c r="H82" s="33">
         <f t="shared" si="16"/>
         <v>81</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G83" s="1"/>
-      <c r="H83" s="45">
+      <c r="H83" s="33">
         <f t="shared" si="16"/>
         <v>82</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G84" s="1"/>
-      <c r="H84" s="45">
+      <c r="H84" s="33">
         <f t="shared" si="16"/>
         <v>83</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="45">
+      <c r="H85" s="33">
         <f t="shared" si="16"/>
         <v>84</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G86" s="1"/>
-      <c r="H86" s="45">
+      <c r="H86" s="33">
         <f t="shared" si="16"/>
         <v>85</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G87" s="1"/>
-      <c r="H87" s="45">
+      <c r="H87" s="33">
         <f t="shared" si="16"/>
         <v>86</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G88" s="1"/>
-      <c r="H88" s="45">
+      <c r="H88" s="33">
         <f t="shared" si="16"/>
         <v>87</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G89" s="1"/>
-      <c r="H89" s="45">
+      <c r="H89" s="33">
         <f t="shared" si="16"/>
         <v>88</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G90" s="1"/>
-      <c r="H90" s="45">
+      <c r="H90" s="33">
         <f t="shared" si="16"/>
         <v>89</v>
       </c>
@@ -7395,7 +7395,7 @@
       <c r="G91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="45">
+      <c r="H91" s="33">
         <f t="shared" si="16"/>
         <v>90</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G92" s="1"/>
-      <c r="H92" s="45">
+      <c r="H92" s="33">
         <f t="shared" si="16"/>
         <v>91</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G93" s="1"/>
-      <c r="H93" s="45">
+      <c r="H93" s="33">
         <f t="shared" si="16"/>
         <v>92</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G94" s="1"/>
-      <c r="H94" s="45">
+      <c r="H94" s="33">
         <f t="shared" si="16"/>
         <v>93</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G95" s="1"/>
-      <c r="H95" s="45">
+      <c r="H95" s="33">
         <f t="shared" si="16"/>
         <v>94</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G96" s="1"/>
-      <c r="H96" s="45">
+      <c r="H96" s="33">
         <f t="shared" si="16"/>
         <v>95</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G97" s="1"/>
-      <c r="H97" s="45">
+      <c r="H97" s="33">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G98" s="1"/>
-      <c r="H98" s="45">
+      <c r="H98" s="33">
         <f t="shared" si="16"/>
         <v>97</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G99" s="1"/>
-      <c r="H99" s="45">
+      <c r="H99" s="33">
         <f t="shared" si="16"/>
         <v>98</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G100" s="1"/>
-      <c r="H100" s="45">
+      <c r="H100" s="33">
         <f t="shared" si="16"/>
         <v>99</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="G101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="45">
+      <c r="H101" s="33">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G102" s="1"/>
-      <c r="H102" s="45">
+      <c r="H102" s="33">
         <f t="shared" si="16"/>
         <v>101</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G103" s="1"/>
-      <c r="H103" s="45">
+      <c r="H103" s="33">
         <f t="shared" si="16"/>
         <v>102</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G104" s="1"/>
-      <c r="H104" s="45">
+      <c r="H104" s="33">
         <f t="shared" si="16"/>
         <v>103</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G105" s="1"/>
-      <c r="H105" s="45">
+      <c r="H105" s="33">
         <f t="shared" si="16"/>
         <v>104</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G106" s="1"/>
-      <c r="H106" s="45">
+      <c r="H106" s="33">
         <f t="shared" si="16"/>
         <v>105</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G107" s="1"/>
-      <c r="H107" s="45">
+      <c r="H107" s="33">
         <f t="shared" si="16"/>
         <v>106</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G108" s="1"/>
-      <c r="H108" s="45">
+      <c r="H108" s="33">
         <f t="shared" si="16"/>
         <v>107</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G109" s="1"/>
-      <c r="H109" s="45">
+      <c r="H109" s="33">
         <f t="shared" si="16"/>
         <v>108</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G110" s="1"/>
-      <c r="H110" s="45">
+      <c r="H110" s="33">
         <f t="shared" si="16"/>
         <v>109</v>
       </c>
@@ -8029,7 +8029,7 @@
       <c r="G111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="45">
+      <c r="H111" s="33">
         <f t="shared" si="16"/>
         <v>110</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G112" s="1"/>
-      <c r="H112" s="45">
+      <c r="H112" s="33">
         <f t="shared" si="16"/>
         <v>111</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G113" s="1"/>
-      <c r="H113" s="45">
+      <c r="H113" s="33">
         <f t="shared" si="16"/>
         <v>112</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G114" s="1"/>
-      <c r="H114" s="45">
+      <c r="H114" s="33">
         <f t="shared" si="16"/>
         <v>113</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G115" s="1"/>
-      <c r="H115" s="45">
+      <c r="H115" s="33">
         <f t="shared" si="16"/>
         <v>114</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G116" s="1"/>
-      <c r="H116" s="45">
+      <c r="H116" s="33">
         <f t="shared" si="16"/>
         <v>115</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G117" s="1"/>
-      <c r="H117" s="45">
+      <c r="H117" s="33">
         <f t="shared" si="16"/>
         <v>116</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G118" s="1"/>
-      <c r="H118" s="45">
+      <c r="H118" s="33">
         <f t="shared" si="16"/>
         <v>117</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G119" s="1"/>
-      <c r="H119" s="45">
+      <c r="H119" s="33">
         <f t="shared" si="16"/>
         <v>118</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G120" s="1"/>
-      <c r="H120" s="45">
+      <c r="H120" s="33">
         <f t="shared" si="16"/>
         <v>119</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="G121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="45">
+      <c r="H121" s="33">
         <f t="shared" si="16"/>
         <v>120</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G122" s="1"/>
-      <c r="H122" s="45">
+      <c r="H122" s="33">
         <f t="shared" si="16"/>
         <v>121</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G123" s="1"/>
-      <c r="H123" s="45">
+      <c r="H123" s="33">
         <f t="shared" si="16"/>
         <v>122</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G124" s="1"/>
-      <c r="H124" s="45">
+      <c r="H124" s="33">
         <f t="shared" si="16"/>
         <v>123</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G125" s="1"/>
-      <c r="H125" s="45">
+      <c r="H125" s="33">
         <f t="shared" si="16"/>
         <v>124</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G126" s="1"/>
-      <c r="H126" s="45">
+      <c r="H126" s="33">
         <f t="shared" si="16"/>
         <v>125</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G127" s="1"/>
-      <c r="H127" s="45">
+      <c r="H127" s="33">
         <f t="shared" si="16"/>
         <v>126</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G128" s="1"/>
-      <c r="H128" s="45">
+      <c r="H128" s="33">
         <f t="shared" si="16"/>
         <v>127</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G129" s="1"/>
-      <c r="H129" s="45">
+      <c r="H129" s="33">
         <f t="shared" si="16"/>
         <v>128</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G130" s="1"/>
-      <c r="H130" s="45">
+      <c r="H130" s="33">
         <f t="shared" si="16"/>
         <v>129</v>
       </c>
@@ -8663,7 +8663,7 @@
       <c r="G131" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H131" s="45">
+      <c r="H131" s="33">
         <f t="shared" si="16"/>
         <v>130</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G132" s="1"/>
-      <c r="H132" s="45">
+      <c r="H132" s="33">
         <f t="shared" si="16"/>
         <v>131</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G133" s="1"/>
-      <c r="H133" s="45">
+      <c r="H133" s="33">
         <f t="shared" si="16"/>
         <v>132</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G134" s="1"/>
-      <c r="H134" s="45">
+      <c r="H134" s="33">
         <f t="shared" si="16"/>
         <v>133</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G135" s="1"/>
-      <c r="H135" s="45">
+      <c r="H135" s="33">
         <f t="shared" si="16"/>
         <v>134</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G136" s="1"/>
-      <c r="H136" s="45">
+      <c r="H136" s="33">
         <f t="shared" si="16"/>
         <v>135</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G137" s="1"/>
-      <c r="H137" s="45">
+      <c r="H137" s="33">
         <f t="shared" si="16"/>
         <v>136</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G138" s="1"/>
-      <c r="H138" s="45">
+      <c r="H138" s="33">
         <f t="shared" si="16"/>
         <v>137</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G139" s="1"/>
-      <c r="H139" s="45">
+      <c r="H139" s="33">
         <f t="shared" si="16"/>
         <v>138</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G140" s="1"/>
-      <c r="H140" s="45">
+      <c r="H140" s="33">
         <f t="shared" ref="H140:H203" si="22">A140</f>
         <v>139</v>
       </c>
@@ -8980,7 +8980,7 @@
       <c r="G141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="45">
+      <c r="H141" s="33">
         <f t="shared" si="22"/>
         <v>140</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G142" s="1"/>
-      <c r="H142" s="45">
+      <c r="H142" s="33">
         <f t="shared" si="22"/>
         <v>141</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G143" s="1"/>
-      <c r="H143" s="45">
+      <c r="H143" s="33">
         <f t="shared" si="22"/>
         <v>142</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G144" s="1"/>
-      <c r="H144" s="45">
+      <c r="H144" s="33">
         <f t="shared" si="22"/>
         <v>143</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G145" s="1"/>
-      <c r="H145" s="45">
+      <c r="H145" s="33">
         <f t="shared" si="22"/>
         <v>144</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G146" s="1"/>
-      <c r="H146" s="45">
+      <c r="H146" s="33">
         <f t="shared" si="22"/>
         <v>145</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G147" s="1"/>
-      <c r="H147" s="45">
+      <c r="H147" s="33">
         <f t="shared" si="22"/>
         <v>146</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G148" s="1"/>
-      <c r="H148" s="45">
+      <c r="H148" s="33">
         <f t="shared" si="22"/>
         <v>147</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G149" s="1"/>
-      <c r="H149" s="45">
+      <c r="H149" s="33">
         <f t="shared" si="22"/>
         <v>148</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G150" s="1"/>
-      <c r="H150" s="45">
+      <c r="H150" s="33">
         <f t="shared" si="22"/>
         <v>149</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="G151" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H151" s="45">
+      <c r="H151" s="33">
         <f t="shared" si="22"/>
         <v>150</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G152" s="1"/>
-      <c r="H152" s="45">
+      <c r="H152" s="33">
         <f t="shared" si="22"/>
         <v>151</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G153" s="1"/>
-      <c r="H153" s="45">
+      <c r="H153" s="33">
         <f t="shared" si="22"/>
         <v>152</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G154" s="1"/>
-      <c r="H154" s="45">
+      <c r="H154" s="33">
         <f t="shared" si="22"/>
         <v>153</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G155" s="1"/>
-      <c r="H155" s="45">
+      <c r="H155" s="33">
         <f t="shared" si="22"/>
         <v>154</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G156" s="1"/>
-      <c r="H156" s="45">
+      <c r="H156" s="33">
         <f t="shared" si="22"/>
         <v>155</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G157" s="1"/>
-      <c r="H157" s="45">
+      <c r="H157" s="33">
         <f t="shared" si="22"/>
         <v>156</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G158" s="1"/>
-      <c r="H158" s="45">
+      <c r="H158" s="33">
         <f t="shared" si="22"/>
         <v>157</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G159" s="1"/>
-      <c r="H159" s="45">
+      <c r="H159" s="33">
         <f t="shared" si="22"/>
         <v>158</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G160" s="1"/>
-      <c r="H160" s="45">
+      <c r="H160" s="33">
         <f t="shared" si="22"/>
         <v>159</v>
       </c>
@@ -9614,7 +9614,7 @@
       <c r="G161" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H161" s="45">
+      <c r="H161" s="33">
         <f t="shared" si="22"/>
         <v>160</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G162" s="1"/>
-      <c r="H162" s="45">
+      <c r="H162" s="33">
         <f t="shared" si="22"/>
         <v>161</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G163" s="1"/>
-      <c r="H163" s="45">
+      <c r="H163" s="33">
         <f t="shared" si="22"/>
         <v>162</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G164" s="1"/>
-      <c r="H164" s="45">
+      <c r="H164" s="33">
         <f t="shared" si="22"/>
         <v>163</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G165" s="1"/>
-      <c r="H165" s="45">
+      <c r="H165" s="33">
         <f t="shared" si="22"/>
         <v>164</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G166" s="1"/>
-      <c r="H166" s="45">
+      <c r="H166" s="33">
         <f t="shared" si="22"/>
         <v>165</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G167" s="1"/>
-      <c r="H167" s="45">
+      <c r="H167" s="33">
         <f t="shared" si="22"/>
         <v>166</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G168" s="1"/>
-      <c r="H168" s="45">
+      <c r="H168" s="33">
         <f t="shared" si="22"/>
         <v>167</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G169" s="1"/>
-      <c r="H169" s="45">
+      <c r="H169" s="33">
         <f t="shared" si="22"/>
         <v>168</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G170" s="1"/>
-      <c r="H170" s="45">
+      <c r="H170" s="33">
         <f t="shared" si="22"/>
         <v>169</v>
       </c>
@@ -9931,7 +9931,7 @@
       <c r="G171" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="45">
+      <c r="H171" s="33">
         <f t="shared" si="22"/>
         <v>170</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G172" s="1"/>
-      <c r="H172" s="45">
+      <c r="H172" s="33">
         <f t="shared" si="22"/>
         <v>171</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G173" s="1"/>
-      <c r="H173" s="45">
+      <c r="H173" s="33">
         <f t="shared" si="22"/>
         <v>172</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G174" s="1"/>
-      <c r="H174" s="45">
+      <c r="H174" s="33">
         <f t="shared" si="22"/>
         <v>173</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G175" s="1"/>
-      <c r="H175" s="45">
+      <c r="H175" s="33">
         <f t="shared" si="22"/>
         <v>174</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G176" s="1"/>
-      <c r="H176" s="45">
+      <c r="H176" s="33">
         <f t="shared" si="22"/>
         <v>175</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G177" s="1"/>
-      <c r="H177" s="45">
+      <c r="H177" s="33">
         <f t="shared" si="22"/>
         <v>176</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G178" s="1"/>
-      <c r="H178" s="45">
+      <c r="H178" s="33">
         <f t="shared" si="22"/>
         <v>177</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G179" s="1"/>
-      <c r="H179" s="45">
+      <c r="H179" s="33">
         <f t="shared" si="22"/>
         <v>178</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G180" s="1"/>
-      <c r="H180" s="45">
+      <c r="H180" s="33">
         <f t="shared" si="22"/>
         <v>179</v>
       </c>
@@ -10248,7 +10248,7 @@
       <c r="G181" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H181" s="45">
+      <c r="H181" s="33">
         <f t="shared" si="22"/>
         <v>180</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G182" s="1"/>
-      <c r="H182" s="45">
+      <c r="H182" s="33">
         <f t="shared" si="22"/>
         <v>181</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G183" s="1"/>
-      <c r="H183" s="45">
+      <c r="H183" s="33">
         <f t="shared" si="22"/>
         <v>182</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G184" s="1"/>
-      <c r="H184" s="45">
+      <c r="H184" s="33">
         <f t="shared" si="22"/>
         <v>183</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G185" s="1"/>
-      <c r="H185" s="45">
+      <c r="H185" s="33">
         <f t="shared" si="22"/>
         <v>184</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G186" s="1"/>
-      <c r="H186" s="45">
+      <c r="H186" s="33">
         <f t="shared" si="22"/>
         <v>185</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G187" s="1"/>
-      <c r="H187" s="45">
+      <c r="H187" s="33">
         <f t="shared" si="22"/>
         <v>186</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G188" s="1"/>
-      <c r="H188" s="45">
+      <c r="H188" s="33">
         <f t="shared" si="22"/>
         <v>187</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G189" s="1"/>
-      <c r="H189" s="45">
+      <c r="H189" s="33">
         <f t="shared" si="22"/>
         <v>188</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G190" s="1"/>
-      <c r="H190" s="45">
+      <c r="H190" s="33">
         <f t="shared" si="22"/>
         <v>189</v>
       </c>
@@ -10565,7 +10565,7 @@
       <c r="G191" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H191" s="45">
+      <c r="H191" s="33">
         <f t="shared" si="22"/>
         <v>190</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G192" s="1"/>
-      <c r="H192" s="45">
+      <c r="H192" s="33">
         <f t="shared" si="22"/>
         <v>191</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G193" s="1"/>
-      <c r="H193" s="45">
+      <c r="H193" s="33">
         <f t="shared" si="22"/>
         <v>192</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G194" s="1"/>
-      <c r="H194" s="45">
+      <c r="H194" s="33">
         <f t="shared" si="22"/>
         <v>193</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G195" s="1"/>
-      <c r="H195" s="45">
+      <c r="H195" s="33">
         <f t="shared" si="22"/>
         <v>194</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G196" s="1"/>
-      <c r="H196" s="45">
+      <c r="H196" s="33">
         <f t="shared" si="22"/>
         <v>195</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G197" s="1"/>
-      <c r="H197" s="45">
+      <c r="H197" s="33">
         <f t="shared" si="22"/>
         <v>196</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G198" s="1"/>
-      <c r="H198" s="45">
+      <c r="H198" s="33">
         <f t="shared" si="22"/>
         <v>197</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G199" s="1"/>
-      <c r="H199" s="45">
+      <c r="H199" s="33">
         <f t="shared" si="22"/>
         <v>198</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G200" s="1"/>
-      <c r="H200" s="45">
+      <c r="H200" s="33">
         <f t="shared" si="22"/>
         <v>199</v>
       </c>
@@ -10882,7 +10882,7 @@
       <c r="G201" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H201" s="45">
+      <c r="H201" s="33">
         <f t="shared" si="22"/>
         <v>200</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G202" s="1"/>
-      <c r="H202" s="45">
+      <c r="H202" s="33">
         <f t="shared" si="22"/>
         <v>201</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G203" s="1"/>
-      <c r="H203" s="45">
+      <c r="H203" s="33">
         <f t="shared" si="22"/>
         <v>202</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G204" s="1"/>
-      <c r="H204" s="45">
+      <c r="H204" s="33">
         <f t="shared" ref="H204:H267" si="28">A204</f>
         <v>203</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G205" s="1"/>
-      <c r="H205" s="45">
+      <c r="H205" s="33">
         <f t="shared" si="28"/>
         <v>204</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G206" s="1"/>
-      <c r="H206" s="45">
+      <c r="H206" s="33">
         <f t="shared" si="28"/>
         <v>205</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G207" s="1"/>
-      <c r="H207" s="45">
+      <c r="H207" s="33">
         <f t="shared" si="28"/>
         <v>206</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G208" s="1"/>
-      <c r="H208" s="45">
+      <c r="H208" s="33">
         <f t="shared" si="28"/>
         <v>207</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G209" s="1"/>
-      <c r="H209" s="45">
+      <c r="H209" s="33">
         <f t="shared" si="28"/>
         <v>208</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G210" s="1"/>
-      <c r="H210" s="45">
+      <c r="H210" s="33">
         <f t="shared" si="28"/>
         <v>209</v>
       </c>
@@ -11199,7 +11199,7 @@
       <c r="G211" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H211" s="45">
+      <c r="H211" s="33">
         <f t="shared" si="28"/>
         <v>210</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G212" s="1"/>
-      <c r="H212" s="45">
+      <c r="H212" s="33">
         <f t="shared" si="28"/>
         <v>211</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G213" s="1"/>
-      <c r="H213" s="45">
+      <c r="H213" s="33">
         <f t="shared" si="28"/>
         <v>212</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G214" s="1"/>
-      <c r="H214" s="45">
+      <c r="H214" s="33">
         <f t="shared" si="28"/>
         <v>213</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G215" s="1"/>
-      <c r="H215" s="45">
+      <c r="H215" s="33">
         <f t="shared" si="28"/>
         <v>214</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G216" s="1"/>
-      <c r="H216" s="45">
+      <c r="H216" s="33">
         <f t="shared" si="28"/>
         <v>215</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G217" s="1"/>
-      <c r="H217" s="45">
+      <c r="H217" s="33">
         <f t="shared" si="28"/>
         <v>216</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G218" s="1"/>
-      <c r="H218" s="45">
+      <c r="H218" s="33">
         <f t="shared" si="28"/>
         <v>217</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G219" s="1"/>
-      <c r="H219" s="45">
+      <c r="H219" s="33">
         <f t="shared" si="28"/>
         <v>218</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G220" s="1"/>
-      <c r="H220" s="45">
+      <c r="H220" s="33">
         <f t="shared" si="28"/>
         <v>219</v>
       </c>
@@ -11516,7 +11516,7 @@
       <c r="G221" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H221" s="45">
+      <c r="H221" s="33">
         <f t="shared" si="28"/>
         <v>220</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G222" s="1"/>
-      <c r="H222" s="45">
+      <c r="H222" s="33">
         <f t="shared" si="28"/>
         <v>221</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G223" s="1"/>
-      <c r="H223" s="45">
+      <c r="H223" s="33">
         <f t="shared" si="28"/>
         <v>222</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G224" s="1"/>
-      <c r="H224" s="45">
+      <c r="H224" s="33">
         <f t="shared" si="28"/>
         <v>223</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G225" s="1"/>
-      <c r="H225" s="45">
+      <c r="H225" s="33">
         <f t="shared" si="28"/>
         <v>224</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G226" s="1"/>
-      <c r="H226" s="45">
+      <c r="H226" s="33">
         <f t="shared" si="28"/>
         <v>225</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G227" s="1"/>
-      <c r="H227" s="45">
+      <c r="H227" s="33">
         <f t="shared" si="28"/>
         <v>226</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G228" s="1"/>
-      <c r="H228" s="45">
+      <c r="H228" s="33">
         <f t="shared" si="28"/>
         <v>227</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G229" s="1"/>
-      <c r="H229" s="45">
+      <c r="H229" s="33">
         <f t="shared" si="28"/>
         <v>228</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G230" s="1"/>
-      <c r="H230" s="45">
+      <c r="H230" s="33">
         <f t="shared" si="28"/>
         <v>229</v>
       </c>
@@ -11833,7 +11833,7 @@
       <c r="G231" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H231" s="45">
+      <c r="H231" s="33">
         <f t="shared" si="28"/>
         <v>230</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G232" s="1"/>
-      <c r="H232" s="45">
+      <c r="H232" s="33">
         <f t="shared" si="28"/>
         <v>231</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G233" s="1"/>
-      <c r="H233" s="45">
+      <c r="H233" s="33">
         <f t="shared" si="28"/>
         <v>232</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G234" s="1"/>
-      <c r="H234" s="45">
+      <c r="H234" s="33">
         <f t="shared" si="28"/>
         <v>233</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G235" s="1"/>
-      <c r="H235" s="45">
+      <c r="H235" s="33">
         <f t="shared" si="28"/>
         <v>234</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G236" s="1"/>
-      <c r="H236" s="45">
+      <c r="H236" s="33">
         <f t="shared" si="28"/>
         <v>235</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G237" s="1"/>
-      <c r="H237" s="45">
+      <c r="H237" s="33">
         <f t="shared" si="28"/>
         <v>236</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G238" s="1"/>
-      <c r="H238" s="45">
+      <c r="H238" s="33">
         <f t="shared" si="28"/>
         <v>237</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G239" s="1"/>
-      <c r="H239" s="45">
+      <c r="H239" s="33">
         <f t="shared" si="28"/>
         <v>238</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G240" s="1"/>
-      <c r="H240" s="45">
+      <c r="H240" s="33">
         <f t="shared" si="28"/>
         <v>239</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="G241" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H241" s="45">
+      <c r="H241" s="33">
         <f t="shared" si="28"/>
         <v>240</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G242" s="1"/>
-      <c r="H242" s="45">
+      <c r="H242" s="33">
         <f t="shared" si="28"/>
         <v>241</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G243" s="1"/>
-      <c r="H243" s="45">
+      <c r="H243" s="33">
         <f t="shared" si="28"/>
         <v>242</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G244" s="1"/>
-      <c r="H244" s="45">
+      <c r="H244" s="33">
         <f t="shared" si="28"/>
         <v>243</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G245" s="1"/>
-      <c r="H245" s="45">
+      <c r="H245" s="33">
         <f t="shared" si="28"/>
         <v>244</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G246" s="1"/>
-      <c r="H246" s="45">
+      <c r="H246" s="33">
         <f t="shared" si="28"/>
         <v>245</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G247" s="1"/>
-      <c r="H247" s="45">
+      <c r="H247" s="33">
         <f t="shared" si="28"/>
         <v>246</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G248" s="1"/>
-      <c r="H248" s="45">
+      <c r="H248" s="33">
         <f t="shared" si="28"/>
         <v>247</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G249" s="1"/>
-      <c r="H249" s="45">
+      <c r="H249" s="33">
         <f t="shared" si="28"/>
         <v>248</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G250" s="1"/>
-      <c r="H250" s="45">
+      <c r="H250" s="33">
         <f t="shared" si="28"/>
         <v>249</v>
       </c>
@@ -12467,7 +12467,7 @@
       <c r="G251" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H251" s="45">
+      <c r="H251" s="33">
         <f t="shared" si="28"/>
         <v>250</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G252" s="1"/>
-      <c r="H252" s="45">
+      <c r="H252" s="33">
         <f t="shared" si="28"/>
         <v>251</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G253" s="1"/>
-      <c r="H253" s="45">
+      <c r="H253" s="33">
         <f t="shared" si="28"/>
         <v>252</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G254" s="1"/>
-      <c r="H254" s="45">
+      <c r="H254" s="33">
         <f t="shared" si="28"/>
         <v>253</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G255" s="1"/>
-      <c r="H255" s="45">
+      <c r="H255" s="33">
         <f t="shared" si="28"/>
         <v>254</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G256" s="1"/>
-      <c r="H256" s="45">
+      <c r="H256" s="33">
         <f t="shared" si="28"/>
         <v>255</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G257" s="1"/>
-      <c r="H257" s="45">
+      <c r="H257" s="33">
         <f t="shared" si="28"/>
         <v>256</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G258" s="1"/>
-      <c r="H258" s="45">
+      <c r="H258" s="33">
         <f t="shared" si="28"/>
         <v>257</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G259" s="1"/>
-      <c r="H259" s="45">
+      <c r="H259" s="33">
         <f t="shared" si="28"/>
         <v>258</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G260" s="1"/>
-      <c r="H260" s="45">
+      <c r="H260" s="33">
         <f t="shared" si="28"/>
         <v>259</v>
       </c>
@@ -12784,7 +12784,7 @@
       <c r="G261" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H261" s="45">
+      <c r="H261" s="33">
         <f t="shared" si="28"/>
         <v>260</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G262" s="1"/>
-      <c r="H262" s="45">
+      <c r="H262" s="33">
         <f t="shared" si="28"/>
         <v>261</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G263" s="1"/>
-      <c r="H263" s="45">
+      <c r="H263" s="33">
         <f t="shared" si="28"/>
         <v>262</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G264" s="1"/>
-      <c r="H264" s="45">
+      <c r="H264" s="33">
         <f t="shared" si="28"/>
         <v>263</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G265" s="1"/>
-      <c r="H265" s="45">
+      <c r="H265" s="33">
         <f t="shared" si="28"/>
         <v>264</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G266" s="1"/>
-      <c r="H266" s="45">
+      <c r="H266" s="33">
         <f t="shared" si="28"/>
         <v>265</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G267" s="1"/>
-      <c r="H267" s="45">
+      <c r="H267" s="33">
         <f t="shared" si="28"/>
         <v>266</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G268" s="1"/>
-      <c r="H268" s="45">
+      <c r="H268" s="33">
         <f t="shared" ref="H268:H331" si="34">A268</f>
         <v>267</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G269" s="1"/>
-      <c r="H269" s="45">
+      <c r="H269" s="33">
         <f t="shared" si="34"/>
         <v>268</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G270" s="1"/>
-      <c r="H270" s="45">
+      <c r="H270" s="33">
         <f t="shared" si="34"/>
         <v>269</v>
       </c>
@@ -13101,7 +13101,7 @@
       <c r="G271" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H271" s="45">
+      <c r="H271" s="33">
         <f t="shared" si="34"/>
         <v>270</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G272" s="1"/>
-      <c r="H272" s="45">
+      <c r="H272" s="33">
         <f t="shared" si="34"/>
         <v>271</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G273" s="1"/>
-      <c r="H273" s="45">
+      <c r="H273" s="33">
         <f t="shared" si="34"/>
         <v>272</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G274" s="1"/>
-      <c r="H274" s="45">
+      <c r="H274" s="33">
         <f t="shared" si="34"/>
         <v>273</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G275" s="1"/>
-      <c r="H275" s="45">
+      <c r="H275" s="33">
         <f t="shared" si="34"/>
         <v>274</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G276" s="1"/>
-      <c r="H276" s="45">
+      <c r="H276" s="33">
         <f t="shared" si="34"/>
         <v>275</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G277" s="1"/>
-      <c r="H277" s="45">
+      <c r="H277" s="33">
         <f t="shared" si="34"/>
         <v>276</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G278" s="1"/>
-      <c r="H278" s="45">
+      <c r="H278" s="33">
         <f t="shared" si="34"/>
         <v>277</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G279" s="1"/>
-      <c r="H279" s="45">
+      <c r="H279" s="33">
         <f t="shared" si="34"/>
         <v>278</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G280" s="1"/>
-      <c r="H280" s="45">
+      <c r="H280" s="33">
         <f t="shared" si="34"/>
         <v>279</v>
       </c>
@@ -13418,7 +13418,7 @@
       <c r="G281" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H281" s="45">
+      <c r="H281" s="33">
         <f t="shared" si="34"/>
         <v>280</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G282" s="1"/>
-      <c r="H282" s="45">
+      <c r="H282" s="33">
         <f t="shared" si="34"/>
         <v>281</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G283" s="1"/>
-      <c r="H283" s="45">
+      <c r="H283" s="33">
         <f t="shared" si="34"/>
         <v>282</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G284" s="1"/>
-      <c r="H284" s="45">
+      <c r="H284" s="33">
         <f t="shared" si="34"/>
         <v>283</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G285" s="1"/>
-      <c r="H285" s="45">
+      <c r="H285" s="33">
         <f t="shared" si="34"/>
         <v>284</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G286" s="1"/>
-      <c r="H286" s="45">
+      <c r="H286" s="33">
         <f t="shared" si="34"/>
         <v>285</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G287" s="1"/>
-      <c r="H287" s="45">
+      <c r="H287" s="33">
         <f t="shared" si="34"/>
         <v>286</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G288" s="1"/>
-      <c r="H288" s="45">
+      <c r="H288" s="33">
         <f t="shared" si="34"/>
         <v>287</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G289" s="1"/>
-      <c r="H289" s="45">
+      <c r="H289" s="33">
         <f t="shared" si="34"/>
         <v>288</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G290" s="1"/>
-      <c r="H290" s="45">
+      <c r="H290" s="33">
         <f t="shared" si="34"/>
         <v>289</v>
       </c>
@@ -13735,7 +13735,7 @@
       <c r="G291" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H291" s="45">
+      <c r="H291" s="33">
         <f t="shared" si="34"/>
         <v>290</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G292" s="1"/>
-      <c r="H292" s="45">
+      <c r="H292" s="33">
         <f t="shared" si="34"/>
         <v>291</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G293" s="1"/>
-      <c r="H293" s="45">
+      <c r="H293" s="33">
         <f t="shared" si="34"/>
         <v>292</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G294" s="1"/>
-      <c r="H294" s="45">
+      <c r="H294" s="33">
         <f t="shared" si="34"/>
         <v>293</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G295" s="1"/>
-      <c r="H295" s="45">
+      <c r="H295" s="33">
         <f t="shared" si="34"/>
         <v>294</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G296" s="1"/>
-      <c r="H296" s="45">
+      <c r="H296" s="33">
         <f t="shared" si="34"/>
         <v>295</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G297" s="1"/>
-      <c r="H297" s="45">
+      <c r="H297" s="33">
         <f t="shared" si="34"/>
         <v>296</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G298" s="1"/>
-      <c r="H298" s="45">
+      <c r="H298" s="33">
         <f t="shared" si="34"/>
         <v>297</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G299" s="1"/>
-      <c r="H299" s="45">
+      <c r="H299" s="33">
         <f t="shared" si="34"/>
         <v>298</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G300" s="1"/>
-      <c r="H300" s="45">
+      <c r="H300" s="33">
         <f t="shared" si="34"/>
         <v>299</v>
       </c>
@@ -14052,7 +14052,7 @@
       <c r="G301" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H301" s="45">
+      <c r="H301" s="33">
         <f t="shared" si="34"/>
         <v>300</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>0.03</v>
       </c>
       <c r="G302" s="1"/>
-      <c r="H302" s="45">
+      <c r="H302" s="33">
         <f t="shared" si="34"/>
         <v>301</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>0.03</v>
       </c>
       <c r="G303" s="1"/>
-      <c r="H303" s="45">
+      <c r="H303" s="33">
         <f t="shared" si="34"/>
         <v>302</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>0.03</v>
       </c>
       <c r="G304" s="1"/>
-      <c r="H304" s="45">
+      <c r="H304" s="33">
         <f t="shared" si="34"/>
         <v>303</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>0.03</v>
       </c>
       <c r="G305" s="1"/>
-      <c r="H305" s="45">
+      <c r="H305" s="33">
         <f t="shared" si="34"/>
         <v>304</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>0.03</v>
       </c>
       <c r="G306" s="1"/>
-      <c r="H306" s="45">
+      <c r="H306" s="33">
         <f t="shared" si="34"/>
         <v>305</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>0.03</v>
       </c>
       <c r="G307" s="1"/>
-      <c r="H307" s="45">
+      <c r="H307" s="33">
         <f t="shared" si="34"/>
         <v>306</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>0.03</v>
       </c>
       <c r="G308" s="1"/>
-      <c r="H308" s="45">
+      <c r="H308" s="33">
         <f t="shared" si="34"/>
         <v>307</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>0.03</v>
       </c>
       <c r="G309" s="1"/>
-      <c r="H309" s="45">
+      <c r="H309" s="33">
         <f t="shared" si="34"/>
         <v>308</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>0.03</v>
       </c>
       <c r="G310" s="1"/>
-      <c r="H310" s="45">
+      <c r="H310" s="33">
         <f t="shared" si="34"/>
         <v>309</v>
       </c>
@@ -14369,7 +14369,7 @@
       <c r="G311" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H311" s="45">
+      <c r="H311" s="33">
         <f t="shared" si="34"/>
         <v>310</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>0.03</v>
       </c>
       <c r="G312" s="1"/>
-      <c r="H312" s="45">
+      <c r="H312" s="33">
         <f t="shared" si="34"/>
         <v>311</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>0.03</v>
       </c>
       <c r="G313" s="1"/>
-      <c r="H313" s="45">
+      <c r="H313" s="33">
         <f t="shared" si="34"/>
         <v>312</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>0.03</v>
       </c>
       <c r="G314" s="1"/>
-      <c r="H314" s="45">
+      <c r="H314" s="33">
         <f t="shared" si="34"/>
         <v>313</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>0.03</v>
       </c>
       <c r="G315" s="1"/>
-      <c r="H315" s="45">
+      <c r="H315" s="33">
         <f t="shared" si="34"/>
         <v>314</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>0.03</v>
       </c>
       <c r="G316" s="1"/>
-      <c r="H316" s="45">
+      <c r="H316" s="33">
         <f t="shared" si="34"/>
         <v>315</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>0.03</v>
       </c>
       <c r="G317" s="1"/>
-      <c r="H317" s="45">
+      <c r="H317" s="33">
         <f t="shared" si="34"/>
         <v>316</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>0.03</v>
       </c>
       <c r="G318" s="1"/>
-      <c r="H318" s="45">
+      <c r="H318" s="33">
         <f t="shared" si="34"/>
         <v>317</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>0.03</v>
       </c>
       <c r="G319" s="1"/>
-      <c r="H319" s="45">
+      <c r="H319" s="33">
         <f t="shared" si="34"/>
         <v>318</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>0.03</v>
       </c>
       <c r="G320" s="1"/>
-      <c r="H320" s="45">
+      <c r="H320" s="33">
         <f t="shared" si="34"/>
         <v>319</v>
       </c>
@@ -14686,7 +14686,7 @@
       <c r="G321" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H321" s="45">
+      <c r="H321" s="33">
         <f t="shared" si="34"/>
         <v>320</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>0.03</v>
       </c>
       <c r="G322" s="1"/>
-      <c r="H322" s="45">
+      <c r="H322" s="33">
         <f t="shared" si="34"/>
         <v>321</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>0.03</v>
       </c>
       <c r="G323" s="1"/>
-      <c r="H323" s="45">
+      <c r="H323" s="33">
         <f t="shared" si="34"/>
         <v>322</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>0.03</v>
       </c>
       <c r="G324" s="1"/>
-      <c r="H324" s="45">
+      <c r="H324" s="33">
         <f t="shared" si="34"/>
         <v>323</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>0.03</v>
       </c>
       <c r="G325" s="1"/>
-      <c r="H325" s="45">
+      <c r="H325" s="33">
         <f t="shared" si="34"/>
         <v>324</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>0.03</v>
       </c>
       <c r="G326" s="1"/>
-      <c r="H326" s="45">
+      <c r="H326" s="33">
         <f t="shared" si="34"/>
         <v>325</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>0.03</v>
       </c>
       <c r="G327" s="1"/>
-      <c r="H327" s="45">
+      <c r="H327" s="33">
         <f t="shared" si="34"/>
         <v>326</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>0.03</v>
       </c>
       <c r="G328" s="1"/>
-      <c r="H328" s="45">
+      <c r="H328" s="33">
         <f t="shared" si="34"/>
         <v>327</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>0.03</v>
       </c>
       <c r="G329" s="1"/>
-      <c r="H329" s="45">
+      <c r="H329" s="33">
         <f t="shared" si="34"/>
         <v>328</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>0.03</v>
       </c>
       <c r="G330" s="1"/>
-      <c r="H330" s="45">
+      <c r="H330" s="33">
         <f t="shared" si="34"/>
         <v>329</v>
       </c>
@@ -15003,7 +15003,7 @@
       <c r="G331" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H331" s="45">
+      <c r="H331" s="33">
         <f t="shared" si="34"/>
         <v>330</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G332" s="1"/>
-      <c r="H332" s="45">
+      <c r="H332" s="33">
         <f t="shared" ref="H332:H395" si="40">A332</f>
         <v>331</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G333" s="1"/>
-      <c r="H333" s="45">
+      <c r="H333" s="33">
         <f t="shared" si="40"/>
         <v>332</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G334" s="1"/>
-      <c r="H334" s="45">
+      <c r="H334" s="33">
         <f t="shared" si="40"/>
         <v>333</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G335" s="1"/>
-      <c r="H335" s="45">
+      <c r="H335" s="33">
         <f t="shared" si="40"/>
         <v>334</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G336" s="1"/>
-      <c r="H336" s="45">
+      <c r="H336" s="33">
         <f t="shared" si="40"/>
         <v>335</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G337" s="1"/>
-      <c r="H337" s="45">
+      <c r="H337" s="33">
         <f t="shared" si="40"/>
         <v>336</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G338" s="1"/>
-      <c r="H338" s="45">
+      <c r="H338" s="33">
         <f t="shared" si="40"/>
         <v>337</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G339" s="1"/>
-      <c r="H339" s="45">
+      <c r="H339" s="33">
         <f t="shared" si="40"/>
         <v>338</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G340" s="1"/>
-      <c r="H340" s="45">
+      <c r="H340" s="33">
         <f t="shared" si="40"/>
         <v>339</v>
       </c>
@@ -15320,7 +15320,7 @@
       <c r="G341" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H341" s="45">
+      <c r="H341" s="33">
         <f t="shared" si="40"/>
         <v>340</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G342" s="1"/>
-      <c r="H342" s="45">
+      <c r="H342" s="33">
         <f t="shared" si="40"/>
         <v>341</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G343" s="1"/>
-      <c r="H343" s="45">
+      <c r="H343" s="33">
         <f t="shared" si="40"/>
         <v>342</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G344" s="1"/>
-      <c r="H344" s="45">
+      <c r="H344" s="33">
         <f t="shared" si="40"/>
         <v>343</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G345" s="1"/>
-      <c r="H345" s="45">
+      <c r="H345" s="33">
         <f t="shared" si="40"/>
         <v>344</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G346" s="1"/>
-      <c r="H346" s="45">
+      <c r="H346" s="33">
         <f t="shared" si="40"/>
         <v>345</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G347" s="1"/>
-      <c r="H347" s="45">
+      <c r="H347" s="33">
         <f t="shared" si="40"/>
         <v>346</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G348" s="1"/>
-      <c r="H348" s="45">
+      <c r="H348" s="33">
         <f t="shared" si="40"/>
         <v>347</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G349" s="1"/>
-      <c r="H349" s="45">
+      <c r="H349" s="33">
         <f t="shared" si="40"/>
         <v>348</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G350" s="1"/>
-      <c r="H350" s="45">
+      <c r="H350" s="33">
         <f t="shared" si="40"/>
         <v>349</v>
       </c>
@@ -15637,7 +15637,7 @@
       <c r="G351" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H351" s="45">
+      <c r="H351" s="33">
         <f t="shared" si="40"/>
         <v>350</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G352" s="1"/>
-      <c r="H352" s="45">
+      <c r="H352" s="33">
         <f t="shared" si="40"/>
         <v>351</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G353" s="1"/>
-      <c r="H353" s="45">
+      <c r="H353" s="33">
         <f t="shared" si="40"/>
         <v>352</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G354" s="1"/>
-      <c r="H354" s="45">
+      <c r="H354" s="33">
         <f t="shared" si="40"/>
         <v>353</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G355" s="1"/>
-      <c r="H355" s="45">
+      <c r="H355" s="33">
         <f t="shared" si="40"/>
         <v>354</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G356" s="1"/>
-      <c r="H356" s="45">
+      <c r="H356" s="33">
         <f t="shared" si="40"/>
         <v>355</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G357" s="1"/>
-      <c r="H357" s="45">
+      <c r="H357" s="33">
         <f t="shared" si="40"/>
         <v>356</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G358" s="1"/>
-      <c r="H358" s="45">
+      <c r="H358" s="33">
         <f t="shared" si="40"/>
         <v>357</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G359" s="1"/>
-      <c r="H359" s="45">
+      <c r="H359" s="33">
         <f t="shared" si="40"/>
         <v>358</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G360" s="1"/>
-      <c r="H360" s="45">
+      <c r="H360" s="33">
         <f t="shared" si="40"/>
         <v>359</v>
       </c>
@@ -15954,7 +15954,7 @@
       <c r="G361" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H361" s="45">
+      <c r="H361" s="33">
         <f t="shared" si="40"/>
         <v>360</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G362" s="1"/>
-      <c r="H362" s="45">
+      <c r="H362" s="33">
         <f t="shared" si="40"/>
         <v>361</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G363" s="1"/>
-      <c r="H363" s="45">
+      <c r="H363" s="33">
         <f t="shared" si="40"/>
         <v>362</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G364" s="1"/>
-      <c r="H364" s="45">
+      <c r="H364" s="33">
         <f t="shared" si="40"/>
         <v>363</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G365" s="1"/>
-      <c r="H365" s="45">
+      <c r="H365" s="33">
         <f t="shared" si="40"/>
         <v>364</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G366" s="1"/>
-      <c r="H366" s="45">
+      <c r="H366" s="33">
         <f t="shared" si="40"/>
         <v>365</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G367" s="1"/>
-      <c r="H367" s="45">
+      <c r="H367" s="33">
         <f t="shared" si="40"/>
         <v>366</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G368" s="1"/>
-      <c r="H368" s="45">
+      <c r="H368" s="33">
         <f t="shared" si="40"/>
         <v>367</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G369" s="1"/>
-      <c r="H369" s="45">
+      <c r="H369" s="33">
         <f t="shared" si="40"/>
         <v>368</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G370" s="1"/>
-      <c r="H370" s="45">
+      <c r="H370" s="33">
         <f t="shared" si="40"/>
         <v>369</v>
       </c>
@@ -16271,7 +16271,7 @@
       <c r="G371" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H371" s="45">
+      <c r="H371" s="33">
         <f t="shared" si="40"/>
         <v>370</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G372" s="1"/>
-      <c r="H372" s="45">
+      <c r="H372" s="33">
         <f t="shared" si="40"/>
         <v>371</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G373" s="1"/>
-      <c r="H373" s="45">
+      <c r="H373" s="33">
         <f t="shared" si="40"/>
         <v>372</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G374" s="1"/>
-      <c r="H374" s="45">
+      <c r="H374" s="33">
         <f t="shared" si="40"/>
         <v>373</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G375" s="1"/>
-      <c r="H375" s="45">
+      <c r="H375" s="33">
         <f t="shared" si="40"/>
         <v>374</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G376" s="1"/>
-      <c r="H376" s="45">
+      <c r="H376" s="33">
         <f t="shared" si="40"/>
         <v>375</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G377" s="1"/>
-      <c r="H377" s="45">
+      <c r="H377" s="33">
         <f t="shared" si="40"/>
         <v>376</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G378" s="1"/>
-      <c r="H378" s="45">
+      <c r="H378" s="33">
         <f t="shared" si="40"/>
         <v>377</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G379" s="1"/>
-      <c r="H379" s="45">
+      <c r="H379" s="33">
         <f t="shared" si="40"/>
         <v>378</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G380" s="1"/>
-      <c r="H380" s="45">
+      <c r="H380" s="33">
         <f t="shared" si="40"/>
         <v>379</v>
       </c>
@@ -16588,7 +16588,7 @@
       <c r="G381" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H381" s="45">
+      <c r="H381" s="33">
         <f t="shared" si="40"/>
         <v>380</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G382" s="1"/>
-      <c r="H382" s="45">
+      <c r="H382" s="33">
         <f t="shared" si="40"/>
         <v>381</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G383" s="1"/>
-      <c r="H383" s="45">
+      <c r="H383" s="33">
         <f t="shared" si="40"/>
         <v>382</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G384" s="1"/>
-      <c r="H384" s="45">
+      <c r="H384" s="33">
         <f t="shared" si="40"/>
         <v>383</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G385" s="1"/>
-      <c r="H385" s="45">
+      <c r="H385" s="33">
         <f t="shared" si="40"/>
         <v>384</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G386" s="1"/>
-      <c r="H386" s="45">
+      <c r="H386" s="33">
         <f t="shared" si="40"/>
         <v>385</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G387" s="1"/>
-      <c r="H387" s="45">
+      <c r="H387" s="33">
         <f t="shared" si="40"/>
         <v>386</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G388" s="1"/>
-      <c r="H388" s="45">
+      <c r="H388" s="33">
         <f t="shared" si="40"/>
         <v>387</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G389" s="1"/>
-      <c r="H389" s="45">
+      <c r="H389" s="33">
         <f t="shared" si="40"/>
         <v>388</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G390" s="1"/>
-      <c r="H390" s="45">
+      <c r="H390" s="33">
         <f t="shared" si="40"/>
         <v>389</v>
       </c>
@@ -16905,7 +16905,7 @@
       <c r="G391" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H391" s="45">
+      <c r="H391" s="33">
         <f t="shared" si="40"/>
         <v>390</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G392" s="1"/>
-      <c r="H392" s="45">
+      <c r="H392" s="33">
         <f t="shared" si="40"/>
         <v>391</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G393" s="1"/>
-      <c r="H393" s="45">
+      <c r="H393" s="33">
         <f t="shared" si="40"/>
         <v>392</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G394" s="1"/>
-      <c r="H394" s="45">
+      <c r="H394" s="33">
         <f t="shared" si="40"/>
         <v>393</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G395" s="1"/>
-      <c r="H395" s="45">
+      <c r="H395" s="33">
         <f t="shared" si="40"/>
         <v>394</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G396" s="1"/>
-      <c r="H396" s="45">
+      <c r="H396" s="33">
         <f t="shared" ref="H396:H459" si="46">A396</f>
         <v>395</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G397" s="1"/>
-      <c r="H397" s="45">
+      <c r="H397" s="33">
         <f t="shared" si="46"/>
         <v>396</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G398" s="1"/>
-      <c r="H398" s="45">
+      <c r="H398" s="33">
         <f t="shared" si="46"/>
         <v>397</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G399" s="1"/>
-      <c r="H399" s="45">
+      <c r="H399" s="33">
         <f t="shared" si="46"/>
         <v>398</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G400" s="1"/>
-      <c r="H400" s="45">
+      <c r="H400" s="33">
         <f t="shared" si="46"/>
         <v>399</v>
       </c>
@@ -17222,7 +17222,7 @@
       <c r="G401" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H401" s="45">
+      <c r="H401" s="33">
         <f t="shared" si="46"/>
         <v>400</v>
       </c>
@@ -17258,7 +17258,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G402" s="1"/>
-      <c r="H402" s="45">
+      <c r="H402" s="33">
         <f t="shared" si="46"/>
         <v>401</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G403" s="1"/>
-      <c r="H403" s="45">
+      <c r="H403" s="33">
         <f t="shared" si="46"/>
         <v>402</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G404" s="1"/>
-      <c r="H404" s="45">
+      <c r="H404" s="33">
         <f t="shared" si="46"/>
         <v>403</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G405" s="1"/>
-      <c r="H405" s="45">
+      <c r="H405" s="33">
         <f t="shared" si="46"/>
         <v>404</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G406" s="1"/>
-      <c r="H406" s="45">
+      <c r="H406" s="33">
         <f t="shared" si="46"/>
         <v>405</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G407" s="1"/>
-      <c r="H407" s="45">
+      <c r="H407" s="33">
         <f t="shared" si="46"/>
         <v>406</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G408" s="1"/>
-      <c r="H408" s="45">
+      <c r="H408" s="33">
         <f t="shared" si="46"/>
         <v>407</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G409" s="1"/>
-      <c r="H409" s="45">
+      <c r="H409" s="33">
         <f t="shared" si="46"/>
         <v>408</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G410" s="1"/>
-      <c r="H410" s="45">
+      <c r="H410" s="33">
         <f t="shared" si="46"/>
         <v>409</v>
       </c>
@@ -17539,7 +17539,7 @@
       <c r="G411" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H411" s="45">
+      <c r="H411" s="33">
         <f t="shared" si="46"/>
         <v>410</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G412" s="1"/>
-      <c r="H412" s="45">
+      <c r="H412" s="33">
         <f t="shared" si="46"/>
         <v>411</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G413" s="1"/>
-      <c r="H413" s="45">
+      <c r="H413" s="33">
         <f t="shared" si="46"/>
         <v>412</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G414" s="1"/>
-      <c r="H414" s="45">
+      <c r="H414" s="33">
         <f t="shared" si="46"/>
         <v>413</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G415" s="1"/>
-      <c r="H415" s="45">
+      <c r="H415" s="33">
         <f t="shared" si="46"/>
         <v>414</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G416" s="1"/>
-      <c r="H416" s="45">
+      <c r="H416" s="33">
         <f t="shared" si="46"/>
         <v>415</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G417" s="1"/>
-      <c r="H417" s="45">
+      <c r="H417" s="33">
         <f t="shared" si="46"/>
         <v>416</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G418" s="1"/>
-      <c r="H418" s="45">
+      <c r="H418" s="33">
         <f t="shared" si="46"/>
         <v>417</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G419" s="1"/>
-      <c r="H419" s="45">
+      <c r="H419" s="33">
         <f t="shared" si="46"/>
         <v>418</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G420" s="1"/>
-      <c r="H420" s="45">
+      <c r="H420" s="33">
         <f t="shared" si="46"/>
         <v>419</v>
       </c>
@@ -17856,7 +17856,7 @@
       <c r="G421" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H421" s="45">
+      <c r="H421" s="33">
         <f t="shared" si="46"/>
         <v>420</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G422" s="1"/>
-      <c r="H422" s="45">
+      <c r="H422" s="33">
         <f t="shared" si="46"/>
         <v>421</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G423" s="1"/>
-      <c r="H423" s="45">
+      <c r="H423" s="33">
         <f t="shared" si="46"/>
         <v>422</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G424" s="1"/>
-      <c r="H424" s="45">
+      <c r="H424" s="33">
         <f t="shared" si="46"/>
         <v>423</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G425" s="1"/>
-      <c r="H425" s="45">
+      <c r="H425" s="33">
         <f t="shared" si="46"/>
         <v>424</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G426" s="1"/>
-      <c r="H426" s="45">
+      <c r="H426" s="33">
         <f t="shared" si="46"/>
         <v>425</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G427" s="1"/>
-      <c r="H427" s="45">
+      <c r="H427" s="33">
         <f t="shared" si="46"/>
         <v>426</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G428" s="1"/>
-      <c r="H428" s="45">
+      <c r="H428" s="33">
         <f t="shared" si="46"/>
         <v>427</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G429" s="1"/>
-      <c r="H429" s="45">
+      <c r="H429" s="33">
         <f t="shared" si="46"/>
         <v>428</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G430" s="1"/>
-      <c r="H430" s="45">
+      <c r="H430" s="33">
         <f t="shared" si="46"/>
         <v>429</v>
       </c>
@@ -18173,7 +18173,7 @@
       <c r="G431" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H431" s="45">
+      <c r="H431" s="33">
         <f t="shared" si="46"/>
         <v>430</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G432" s="1"/>
-      <c r="H432" s="45">
+      <c r="H432" s="33">
         <f t="shared" si="46"/>
         <v>431</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G433" s="1"/>
-      <c r="H433" s="45">
+      <c r="H433" s="33">
         <f t="shared" si="46"/>
         <v>432</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G434" s="1"/>
-      <c r="H434" s="45">
+      <c r="H434" s="33">
         <f t="shared" si="46"/>
         <v>433</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G435" s="1"/>
-      <c r="H435" s="45">
+      <c r="H435" s="33">
         <f t="shared" si="46"/>
         <v>434</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G436" s="1"/>
-      <c r="H436" s="45">
+      <c r="H436" s="33">
         <f t="shared" si="46"/>
         <v>435</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G437" s="1"/>
-      <c r="H437" s="45">
+      <c r="H437" s="33">
         <f t="shared" si="46"/>
         <v>436</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G438" s="1"/>
-      <c r="H438" s="45">
+      <c r="H438" s="33">
         <f t="shared" si="46"/>
         <v>437</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G439" s="1"/>
-      <c r="H439" s="45">
+      <c r="H439" s="33">
         <f t="shared" si="46"/>
         <v>438</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G440" s="1"/>
-      <c r="H440" s="45">
+      <c r="H440" s="33">
         <f t="shared" si="46"/>
         <v>439</v>
       </c>
@@ -18490,7 +18490,7 @@
       <c r="G441" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H441" s="45">
+      <c r="H441" s="33">
         <f t="shared" si="46"/>
         <v>440</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G442" s="1"/>
-      <c r="H442" s="45">
+      <c r="H442" s="33">
         <f t="shared" si="46"/>
         <v>441</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G443" s="1"/>
-      <c r="H443" s="45">
+      <c r="H443" s="33">
         <f t="shared" si="46"/>
         <v>442</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G444" s="1"/>
-      <c r="H444" s="45">
+      <c r="H444" s="33">
         <f t="shared" si="46"/>
         <v>443</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G445" s="1"/>
-      <c r="H445" s="45">
+      <c r="H445" s="33">
         <f t="shared" si="46"/>
         <v>444</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G446" s="1"/>
-      <c r="H446" s="45">
+      <c r="H446" s="33">
         <f t="shared" si="46"/>
         <v>445</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G447" s="1"/>
-      <c r="H447" s="45">
+      <c r="H447" s="33">
         <f t="shared" si="46"/>
         <v>446</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G448" s="1"/>
-      <c r="H448" s="45">
+      <c r="H448" s="33">
         <f t="shared" si="46"/>
         <v>447</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G449" s="1"/>
-      <c r="H449" s="45">
+      <c r="H449" s="33">
         <f t="shared" si="46"/>
         <v>448</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G450" s="1"/>
-      <c r="H450" s="45">
+      <c r="H450" s="33">
         <f t="shared" si="46"/>
         <v>449</v>
       </c>
@@ -18807,7 +18807,7 @@
       <c r="G451" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H451" s="45">
+      <c r="H451" s="33">
         <f t="shared" si="46"/>
         <v>450</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G452" s="1"/>
-      <c r="H452" s="45">
+      <c r="H452" s="33">
         <f t="shared" si="46"/>
         <v>451</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G453" s="1"/>
-      <c r="H453" s="45">
+      <c r="H453" s="33">
         <f t="shared" si="46"/>
         <v>452</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G454" s="1"/>
-      <c r="H454" s="45">
+      <c r="H454" s="33">
         <f t="shared" si="46"/>
         <v>453</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G455" s="1"/>
-      <c r="H455" s="45">
+      <c r="H455" s="33">
         <f t="shared" si="46"/>
         <v>454</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G456" s="1"/>
-      <c r="H456" s="45">
+      <c r="H456" s="33">
         <f t="shared" si="46"/>
         <v>455</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G457" s="1"/>
-      <c r="H457" s="45">
+      <c r="H457" s="33">
         <f t="shared" si="46"/>
         <v>456</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G458" s="1"/>
-      <c r="H458" s="45">
+      <c r="H458" s="33">
         <f t="shared" si="46"/>
         <v>457</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G459" s="1"/>
-      <c r="H459" s="45">
+      <c r="H459" s="33">
         <f t="shared" si="46"/>
         <v>458</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G460" s="1"/>
-      <c r="H460" s="45">
+      <c r="H460" s="33">
         <f t="shared" ref="H460:H523" si="52">A460</f>
         <v>459</v>
       </c>
@@ -19124,7 +19124,7 @@
       <c r="G461" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H461" s="45">
+      <c r="H461" s="33">
         <f t="shared" si="52"/>
         <v>460</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G462" s="1"/>
-      <c r="H462" s="45">
+      <c r="H462" s="33">
         <f t="shared" si="52"/>
         <v>461</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G463" s="1"/>
-      <c r="H463" s="45">
+      <c r="H463" s="33">
         <f t="shared" si="52"/>
         <v>462</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G464" s="1"/>
-      <c r="H464" s="45">
+      <c r="H464" s="33">
         <f t="shared" si="52"/>
         <v>463</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G465" s="1"/>
-      <c r="H465" s="45">
+      <c r="H465" s="33">
         <f t="shared" si="52"/>
         <v>464</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G466" s="1"/>
-      <c r="H466" s="45">
+      <c r="H466" s="33">
         <f t="shared" si="52"/>
         <v>465</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G467" s="1"/>
-      <c r="H467" s="45">
+      <c r="H467" s="33">
         <f t="shared" si="52"/>
         <v>466</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G468" s="1"/>
-      <c r="H468" s="45">
+      <c r="H468" s="33">
         <f t="shared" si="52"/>
         <v>467</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G469" s="1"/>
-      <c r="H469" s="45">
+      <c r="H469" s="33">
         <f t="shared" si="52"/>
         <v>468</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G470" s="1"/>
-      <c r="H470" s="45">
+      <c r="H470" s="33">
         <f t="shared" si="52"/>
         <v>469</v>
       </c>
@@ -19441,7 +19441,7 @@
       <c r="G471" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H471" s="45">
+      <c r="H471" s="33">
         <f t="shared" si="52"/>
         <v>470</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G472" s="1"/>
-      <c r="H472" s="45">
+      <c r="H472" s="33">
         <f t="shared" si="52"/>
         <v>471</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G473" s="1"/>
-      <c r="H473" s="45">
+      <c r="H473" s="33">
         <f t="shared" si="52"/>
         <v>472</v>
       </c>
@@ -19539,7 +19539,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G474" s="1"/>
-      <c r="H474" s="45">
+      <c r="H474" s="33">
         <f t="shared" si="52"/>
         <v>473</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G475" s="1"/>
-      <c r="H475" s="45">
+      <c r="H475" s="33">
         <f t="shared" si="52"/>
         <v>474</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G476" s="1"/>
-      <c r="H476" s="45">
+      <c r="H476" s="33">
         <f t="shared" si="52"/>
         <v>475</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G477" s="1"/>
-      <c r="H477" s="45">
+      <c r="H477" s="33">
         <f t="shared" si="52"/>
         <v>476</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G478" s="1"/>
-      <c r="H478" s="45">
+      <c r="H478" s="33">
         <f t="shared" si="52"/>
         <v>477</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G479" s="1"/>
-      <c r="H479" s="45">
+      <c r="H479" s="33">
         <f t="shared" si="52"/>
         <v>478</v>
       </c>
@@ -19727,7 +19727,7 @@
       <c r="G480" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H480" s="45">
+      <c r="H480" s="33">
         <f t="shared" si="52"/>
         <v>479</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G481" s="1"/>
-      <c r="H481" s="45">
+      <c r="H481" s="33">
         <f t="shared" si="52"/>
         <v>480</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G482" s="1"/>
-      <c r="H482" s="45">
+      <c r="H482" s="33">
         <f t="shared" si="52"/>
         <v>481</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G483" s="1"/>
-      <c r="H483" s="45">
+      <c r="H483" s="33">
         <f t="shared" si="52"/>
         <v>482</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G484" s="1"/>
-      <c r="H484" s="45">
+      <c r="H484" s="33">
         <f t="shared" si="52"/>
         <v>483</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G485" s="1"/>
-      <c r="H485" s="45">
+      <c r="H485" s="33">
         <f t="shared" si="52"/>
         <v>484</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G486" s="1"/>
-      <c r="H486" s="45">
+      <c r="H486" s="33">
         <f t="shared" si="52"/>
         <v>485</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G487" s="1"/>
-      <c r="H487" s="45">
+      <c r="H487" s="33">
         <f t="shared" si="52"/>
         <v>486</v>
       </c>
@@ -19980,7 +19980,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G488" s="1"/>
-      <c r="H488" s="45">
+      <c r="H488" s="33">
         <f t="shared" si="52"/>
         <v>487</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G489" s="1"/>
-      <c r="H489" s="45">
+      <c r="H489" s="33">
         <f t="shared" si="52"/>
         <v>488</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G490" s="1"/>
-      <c r="H490" s="45">
+      <c r="H490" s="33">
         <f t="shared" si="52"/>
         <v>489</v>
       </c>
@@ -20075,7 +20075,7 @@
       <c r="G491" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H491" s="45">
+      <c r="H491" s="33">
         <f t="shared" si="52"/>
         <v>490</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G492" s="1"/>
-      <c r="H492" s="45">
+      <c r="H492" s="33">
         <f t="shared" si="52"/>
         <v>491</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G493" s="1"/>
-      <c r="H493" s="45">
+      <c r="H493" s="33">
         <f t="shared" si="52"/>
         <v>492</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G494" s="1"/>
-      <c r="H494" s="45">
+      <c r="H494" s="33">
         <f t="shared" si="52"/>
         <v>493</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G495" s="1"/>
-      <c r="H495" s="45">
+      <c r="H495" s="33">
         <f t="shared" si="52"/>
         <v>494</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G496" s="1"/>
-      <c r="H496" s="45">
+      <c r="H496" s="33">
         <f t="shared" si="52"/>
         <v>495</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G497" s="1"/>
-      <c r="H497" s="45">
+      <c r="H497" s="33">
         <f t="shared" si="52"/>
         <v>496</v>
       </c>
@@ -20297,7 +20297,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G498" s="1"/>
-      <c r="H498" s="45">
+      <c r="H498" s="33">
         <f t="shared" si="52"/>
         <v>497</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G499" s="1"/>
-      <c r="H499" s="45">
+      <c r="H499" s="33">
         <f t="shared" si="52"/>
         <v>498</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G500" s="1"/>
-      <c r="H500" s="45">
+      <c r="H500" s="33">
         <f t="shared" si="52"/>
         <v>499</v>
       </c>
@@ -20392,7 +20392,7 @@
       <c r="G501" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H501" s="45">
+      <c r="H501" s="33">
         <f t="shared" si="52"/>
         <v>500</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G502" s="1"/>
-      <c r="H502" s="45">
+      <c r="H502" s="33">
         <f t="shared" si="52"/>
         <v>501</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G503" s="1"/>
-      <c r="H503" s="45">
+      <c r="H503" s="33">
         <f t="shared" si="52"/>
         <v>502</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G504" s="1"/>
-      <c r="H504" s="45">
+      <c r="H504" s="33">
         <f t="shared" si="52"/>
         <v>503</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G505" s="1"/>
-      <c r="H505" s="45">
+      <c r="H505" s="33">
         <f t="shared" si="52"/>
         <v>504</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G506" s="1"/>
-      <c r="H506" s="45">
+      <c r="H506" s="33">
         <f t="shared" si="52"/>
         <v>505</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G507" s="1"/>
-      <c r="H507" s="45">
+      <c r="H507" s="33">
         <f t="shared" si="52"/>
         <v>506</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G508" s="1"/>
-      <c r="H508" s="45">
+      <c r="H508" s="33">
         <f t="shared" si="52"/>
         <v>507</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G509" s="1"/>
-      <c r="H509" s="45">
+      <c r="H509" s="33">
         <f t="shared" si="52"/>
         <v>508</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G510" s="1"/>
-      <c r="H510" s="45">
+      <c r="H510" s="33">
         <f t="shared" si="52"/>
         <v>509</v>
       </c>
@@ -20709,7 +20709,7 @@
       <c r="G511" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H511" s="45">
+      <c r="H511" s="33">
         <f t="shared" si="52"/>
         <v>510</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G512" s="1"/>
-      <c r="H512" s="45">
+      <c r="H512" s="33">
         <f t="shared" si="52"/>
         <v>511</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G513" s="1"/>
-      <c r="H513" s="45">
+      <c r="H513" s="33">
         <f t="shared" si="52"/>
         <v>512</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G514" s="1"/>
-      <c r="H514" s="45">
+      <c r="H514" s="33">
         <f t="shared" si="52"/>
         <v>513</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G515" s="1"/>
-      <c r="H515" s="45">
+      <c r="H515" s="33">
         <f t="shared" si="52"/>
         <v>514</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G516" s="1"/>
-      <c r="H516" s="45">
+      <c r="H516" s="33">
         <f t="shared" si="52"/>
         <v>515</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G517" s="1"/>
-      <c r="H517" s="45">
+      <c r="H517" s="33">
         <f t="shared" si="52"/>
         <v>516</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G518" s="1"/>
-      <c r="H518" s="45">
+      <c r="H518" s="33">
         <f t="shared" si="52"/>
         <v>517</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G519" s="1"/>
-      <c r="H519" s="45">
+      <c r="H519" s="33">
         <f t="shared" si="52"/>
         <v>518</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G520" s="1"/>
-      <c r="H520" s="45">
+      <c r="H520" s="33">
         <f t="shared" si="52"/>
         <v>519</v>
       </c>
@@ -21026,7 +21026,7 @@
       <c r="G521" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H521" s="45">
+      <c r="H521" s="33">
         <f t="shared" si="52"/>
         <v>520</v>
       </c>
@@ -21062,7 +21062,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G522" s="1"/>
-      <c r="H522" s="45">
+      <c r="H522" s="33">
         <f t="shared" si="52"/>
         <v>521</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G523" s="1"/>
-      <c r="H523" s="45">
+      <c r="H523" s="33">
         <f t="shared" si="52"/>
         <v>522</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G524" s="1"/>
-      <c r="H524" s="45">
+      <c r="H524" s="33">
         <f t="shared" ref="H524:H587" si="58">A524</f>
         <v>523</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G525" s="1"/>
-      <c r="H525" s="45">
+      <c r="H525" s="33">
         <f t="shared" si="58"/>
         <v>524</v>
       </c>
@@ -21186,7 +21186,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G526" s="1"/>
-      <c r="H526" s="45">
+      <c r="H526" s="33">
         <f t="shared" si="58"/>
         <v>525</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G527" s="1"/>
-      <c r="H527" s="45">
+      <c r="H527" s="33">
         <f t="shared" si="58"/>
         <v>526</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G528" s="1"/>
-      <c r="H528" s="45">
+      <c r="H528" s="33">
         <f t="shared" si="58"/>
         <v>527</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G529" s="1"/>
-      <c r="H529" s="45">
+      <c r="H529" s="33">
         <f t="shared" si="58"/>
         <v>528</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G530" s="1"/>
-      <c r="H530" s="45">
+      <c r="H530" s="33">
         <f t="shared" si="58"/>
         <v>529</v>
       </c>
@@ -21343,7 +21343,7 @@
       <c r="G531" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H531" s="45">
+      <c r="H531" s="33">
         <f t="shared" si="58"/>
         <v>530</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G532" s="1"/>
-      <c r="H532" s="45">
+      <c r="H532" s="33">
         <f t="shared" si="58"/>
         <v>531</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G533" s="1"/>
-      <c r="H533" s="45">
+      <c r="H533" s="33">
         <f t="shared" si="58"/>
         <v>532</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G534" s="1"/>
-      <c r="H534" s="45">
+      <c r="H534" s="33">
         <f t="shared" si="58"/>
         <v>533</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G535" s="1"/>
-      <c r="H535" s="45">
+      <c r="H535" s="33">
         <f t="shared" si="58"/>
         <v>534</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G536" s="1"/>
-      <c r="H536" s="45">
+      <c r="H536" s="33">
         <f t="shared" si="58"/>
         <v>535</v>
       </c>
@@ -21534,7 +21534,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G537" s="1"/>
-      <c r="H537" s="45">
+      <c r="H537" s="33">
         <f t="shared" si="58"/>
         <v>536</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G538" s="1"/>
-      <c r="H538" s="45">
+      <c r="H538" s="33">
         <f t="shared" si="58"/>
         <v>537</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G539" s="1"/>
-      <c r="H539" s="45">
+      <c r="H539" s="33">
         <f t="shared" si="58"/>
         <v>538</v>
       </c>
@@ -21627,7 +21627,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G540" s="1"/>
-      <c r="H540" s="45">
+      <c r="H540" s="33">
         <f t="shared" si="58"/>
         <v>539</v>
       </c>
@@ -21660,7 +21660,7 @@
       <c r="G541" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H541" s="45">
+      <c r="H541" s="33">
         <f t="shared" si="58"/>
         <v>540</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G542" s="1"/>
-      <c r="H542" s="45">
+      <c r="H542" s="33">
         <f t="shared" si="58"/>
         <v>541</v>
       </c>
@@ -21727,7 +21727,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G543" s="1"/>
-      <c r="H543" s="45">
+      <c r="H543" s="33">
         <f t="shared" si="58"/>
         <v>542</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G544" s="1"/>
-      <c r="H544" s="45">
+      <c r="H544" s="33">
         <f t="shared" si="58"/>
         <v>543</v>
       </c>
@@ -21789,7 +21789,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G545" s="1"/>
-      <c r="H545" s="45">
+      <c r="H545" s="33">
         <f t="shared" si="58"/>
         <v>544</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G546" s="1"/>
-      <c r="H546" s="45">
+      <c r="H546" s="33">
         <f t="shared" si="58"/>
         <v>545</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G547" s="1"/>
-      <c r="H547" s="45">
+      <c r="H547" s="33">
         <f t="shared" si="58"/>
         <v>546</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G548" s="1"/>
-      <c r="H548" s="45">
+      <c r="H548" s="33">
         <f t="shared" si="58"/>
         <v>547</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G549" s="1"/>
-      <c r="H549" s="45">
+      <c r="H549" s="33">
         <f t="shared" si="58"/>
         <v>548</v>
       </c>
@@ -21944,7 +21944,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G550" s="1"/>
-      <c r="H550" s="45">
+      <c r="H550" s="33">
         <f t="shared" si="58"/>
         <v>549</v>
       </c>
@@ -21977,7 +21977,7 @@
       <c r="G551" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H551" s="45">
+      <c r="H551" s="33">
         <f t="shared" si="58"/>
         <v>550</v>
       </c>
@@ -22013,7 +22013,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G552" s="1"/>
-      <c r="H552" s="45">
+      <c r="H552" s="33">
         <f t="shared" si="58"/>
         <v>551</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G553" s="1"/>
-      <c r="H553" s="45">
+      <c r="H553" s="33">
         <f t="shared" si="58"/>
         <v>552</v>
       </c>
@@ -22075,7 +22075,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G554" s="1"/>
-      <c r="H554" s="45">
+      <c r="H554" s="33">
         <f t="shared" si="58"/>
         <v>553</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G555" s="1"/>
-      <c r="H555" s="45">
+      <c r="H555" s="33">
         <f t="shared" si="58"/>
         <v>554</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G556" s="1"/>
-      <c r="H556" s="45">
+      <c r="H556" s="33">
         <f t="shared" si="58"/>
         <v>555</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G557" s="1"/>
-      <c r="H557" s="45">
+      <c r="H557" s="33">
         <f t="shared" si="58"/>
         <v>556</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G558" s="1"/>
-      <c r="H558" s="45">
+      <c r="H558" s="33">
         <f t="shared" si="58"/>
         <v>557</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G559" s="1"/>
-      <c r="H559" s="45">
+      <c r="H559" s="33">
         <f t="shared" si="58"/>
         <v>558</v>
       </c>
@@ -22261,7 +22261,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G560" s="1"/>
-      <c r="H560" s="45">
+      <c r="H560" s="33">
         <f t="shared" si="58"/>
         <v>559</v>
       </c>
@@ -22294,7 +22294,7 @@
       <c r="G561" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H561" s="45">
+      <c r="H561" s="33">
         <f t="shared" si="58"/>
         <v>560</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G562" s="1"/>
-      <c r="H562" s="45">
+      <c r="H562" s="33">
         <f t="shared" si="58"/>
         <v>561</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G563" s="1"/>
-      <c r="H563" s="45">
+      <c r="H563" s="33">
         <f t="shared" si="58"/>
         <v>562</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G564" s="1"/>
-      <c r="H564" s="45">
+      <c r="H564" s="33">
         <f t="shared" si="58"/>
         <v>563</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G565" s="1"/>
-      <c r="H565" s="45">
+      <c r="H565" s="33">
         <f t="shared" si="58"/>
         <v>564</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G566" s="1"/>
-      <c r="H566" s="45">
+      <c r="H566" s="33">
         <f t="shared" si="58"/>
         <v>565</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G567" s="1"/>
-      <c r="H567" s="45">
+      <c r="H567" s="33">
         <f t="shared" si="58"/>
         <v>566</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G568" s="1"/>
-      <c r="H568" s="45">
+      <c r="H568" s="33">
         <f t="shared" si="58"/>
         <v>567</v>
       </c>
@@ -22547,7 +22547,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G569" s="1"/>
-      <c r="H569" s="45">
+      <c r="H569" s="33">
         <f t="shared" si="58"/>
         <v>568</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G570" s="1"/>
-      <c r="H570" s="45">
+      <c r="H570" s="33">
         <f t="shared" si="58"/>
         <v>569</v>
       </c>
@@ -22611,7 +22611,7 @@
       <c r="G571" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H571" s="45">
+      <c r="H571" s="33">
         <f t="shared" si="58"/>
         <v>570</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G572" s="1"/>
-      <c r="H572" s="45">
+      <c r="H572" s="33">
         <f t="shared" si="58"/>
         <v>571</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G573" s="1"/>
-      <c r="H573" s="45">
+      <c r="H573" s="33">
         <f t="shared" si="58"/>
         <v>572</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G574" s="1"/>
-      <c r="H574" s="45">
+      <c r="H574" s="33">
         <f t="shared" si="58"/>
         <v>573</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G575" s="1"/>
-      <c r="H575" s="45">
+      <c r="H575" s="33">
         <f t="shared" si="58"/>
         <v>574</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G576" s="1"/>
-      <c r="H576" s="45">
+      <c r="H576" s="33">
         <f t="shared" si="58"/>
         <v>575</v>
       </c>
@@ -22802,7 +22802,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G577" s="1"/>
-      <c r="H577" s="45">
+      <c r="H577" s="33">
         <f t="shared" si="58"/>
         <v>576</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G578" s="1"/>
-      <c r="H578" s="45">
+      <c r="H578" s="33">
         <f t="shared" si="58"/>
         <v>577</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G579" s="1"/>
-      <c r="H579" s="45">
+      <c r="H579" s="33">
         <f t="shared" si="58"/>
         <v>578</v>
       </c>
@@ -22895,7 +22895,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G580" s="1"/>
-      <c r="H580" s="45">
+      <c r="H580" s="33">
         <f t="shared" si="58"/>
         <v>579</v>
       </c>
@@ -22928,7 +22928,7 @@
       <c r="G581" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H581" s="45">
+      <c r="H581" s="33">
         <f t="shared" si="58"/>
         <v>580</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G582" s="1"/>
-      <c r="H582" s="45">
+      <c r="H582" s="33">
         <f t="shared" si="58"/>
         <v>581</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G583" s="1"/>
-      <c r="H583" s="45">
+      <c r="H583" s="33">
         <f t="shared" si="58"/>
         <v>582</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G584" s="1"/>
-      <c r="H584" s="45">
+      <c r="H584" s="33">
         <f t="shared" si="58"/>
         <v>583</v>
       </c>
@@ -23057,7 +23057,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G585" s="1"/>
-      <c r="H585" s="45">
+      <c r="H585" s="33">
         <f t="shared" si="58"/>
         <v>584</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G586" s="1"/>
-      <c r="H586" s="45">
+      <c r="H586" s="33">
         <f t="shared" si="58"/>
         <v>585</v>
       </c>
@@ -23119,7 +23119,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G587" s="1"/>
-      <c r="H587" s="45">
+      <c r="H587" s="33">
         <f t="shared" si="58"/>
         <v>586</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G588" s="1"/>
-      <c r="H588" s="45">
+      <c r="H588" s="33">
         <f t="shared" ref="H588:H651" si="64">A588</f>
         <v>587</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G589" s="1"/>
-      <c r="H589" s="45">
+      <c r="H589" s="33">
         <f t="shared" si="64"/>
         <v>588</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G590" s="1"/>
-      <c r="H590" s="45">
+      <c r="H590" s="33">
         <f t="shared" si="64"/>
         <v>589</v>
       </c>
@@ -23245,7 +23245,7 @@
       <c r="G591" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H591" s="45">
+      <c r="H591" s="33">
         <f t="shared" si="64"/>
         <v>590</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G592" s="1"/>
-      <c r="H592" s="45">
+      <c r="H592" s="33">
         <f t="shared" si="64"/>
         <v>591</v>
       </c>
@@ -23312,7 +23312,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G593" s="1"/>
-      <c r="H593" s="45">
+      <c r="H593" s="33">
         <f t="shared" si="64"/>
         <v>592</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G594" s="1"/>
-      <c r="H594" s="45">
+      <c r="H594" s="33">
         <f t="shared" si="64"/>
         <v>593</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G595" s="1"/>
-      <c r="H595" s="45">
+      <c r="H595" s="33">
         <f t="shared" si="64"/>
         <v>594</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G596" s="1"/>
-      <c r="H596" s="45">
+      <c r="H596" s="33">
         <f t="shared" si="64"/>
         <v>595</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G597" s="1"/>
-      <c r="H597" s="45">
+      <c r="H597" s="33">
         <f t="shared" si="64"/>
         <v>596</v>
       </c>
@@ -23467,7 +23467,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G598" s="1"/>
-      <c r="H598" s="45">
+      <c r="H598" s="33">
         <f t="shared" si="64"/>
         <v>597</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G599" s="1"/>
-      <c r="H599" s="45">
+      <c r="H599" s="33">
         <f t="shared" si="64"/>
         <v>598</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G600" s="1"/>
-      <c r="H600" s="45">
+      <c r="H600" s="33">
         <f t="shared" si="64"/>
         <v>599</v>
       </c>
@@ -23562,7 +23562,7 @@
       <c r="G601" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H601" s="45">
+      <c r="H601" s="33">
         <f t="shared" si="64"/>
         <v>600</v>
       </c>
@@ -23598,7 +23598,7 @@
         <v>0.06</v>
       </c>
       <c r="G602" s="1"/>
-      <c r="H602" s="45">
+      <c r="H602" s="33">
         <f t="shared" si="64"/>
         <v>601</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>0.06</v>
       </c>
       <c r="G603" s="1"/>
-      <c r="H603" s="45">
+      <c r="H603" s="33">
         <f t="shared" si="64"/>
         <v>602</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>0.06</v>
       </c>
       <c r="G604" s="1"/>
-      <c r="H604" s="45">
+      <c r="H604" s="33">
         <f t="shared" si="64"/>
         <v>603</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>0.06</v>
       </c>
       <c r="G605" s="1"/>
-      <c r="H605" s="45">
+      <c r="H605" s="33">
         <f t="shared" si="64"/>
         <v>604</v>
       </c>
@@ -23722,7 +23722,7 @@
         <v>0.06</v>
       </c>
       <c r="G606" s="1"/>
-      <c r="H606" s="45">
+      <c r="H606" s="33">
         <f t="shared" si="64"/>
         <v>605</v>
       </c>
@@ -23753,7 +23753,7 @@
         <v>0.06</v>
       </c>
       <c r="G607" s="1"/>
-      <c r="H607" s="45">
+      <c r="H607" s="33">
         <f t="shared" si="64"/>
         <v>606</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>0.06</v>
       </c>
       <c r="G608" s="1"/>
-      <c r="H608" s="45">
+      <c r="H608" s="33">
         <f t="shared" si="64"/>
         <v>607</v>
       </c>
@@ -23815,7 +23815,7 @@
         <v>0.06</v>
       </c>
       <c r="G609" s="1"/>
-      <c r="H609" s="45">
+      <c r="H609" s="33">
         <f t="shared" si="64"/>
         <v>608</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>0.06</v>
       </c>
       <c r="G610" s="1"/>
-      <c r="H610" s="45">
+      <c r="H610" s="33">
         <f t="shared" si="64"/>
         <v>609</v>
       </c>
@@ -23879,7 +23879,7 @@
       <c r="G611" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H611" s="45">
+      <c r="H611" s="33">
         <f t="shared" si="64"/>
         <v>610</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>0.06</v>
       </c>
       <c r="G612" s="1"/>
-      <c r="H612" s="45">
+      <c r="H612" s="33">
         <f t="shared" si="64"/>
         <v>611</v>
       </c>
@@ -23946,7 +23946,7 @@
         <v>0.06</v>
       </c>
       <c r="G613" s="1"/>
-      <c r="H613" s="45">
+      <c r="H613" s="33">
         <f t="shared" si="64"/>
         <v>612</v>
       </c>
@@ -23977,7 +23977,7 @@
         <v>0.06</v>
       </c>
       <c r="G614" s="1"/>
-      <c r="H614" s="45">
+      <c r="H614" s="33">
         <f t="shared" si="64"/>
         <v>613</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>0.06</v>
       </c>
       <c r="G615" s="1"/>
-      <c r="H615" s="45">
+      <c r="H615" s="33">
         <f t="shared" si="64"/>
         <v>614</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>0.06</v>
       </c>
       <c r="G616" s="1"/>
-      <c r="H616" s="45">
+      <c r="H616" s="33">
         <f t="shared" si="64"/>
         <v>615</v>
       </c>
@@ -24070,7 +24070,7 @@
         <v>0.06</v>
       </c>
       <c r="G617" s="1"/>
-      <c r="H617" s="45">
+      <c r="H617" s="33">
         <f t="shared" si="64"/>
         <v>616</v>
       </c>
@@ -24101,7 +24101,7 @@
         <v>0.06</v>
       </c>
       <c r="G618" s="1"/>
-      <c r="H618" s="45">
+      <c r="H618" s="33">
         <f t="shared" si="64"/>
         <v>617</v>
       </c>
@@ -24132,7 +24132,7 @@
         <v>0.06</v>
       </c>
       <c r="G619" s="1"/>
-      <c r="H619" s="45">
+      <c r="H619" s="33">
         <f t="shared" si="64"/>
         <v>618</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>0.06</v>
       </c>
       <c r="G620" s="1"/>
-      <c r="H620" s="45">
+      <c r="H620" s="33">
         <f t="shared" si="64"/>
         <v>619</v>
       </c>
@@ -24196,7 +24196,7 @@
       <c r="G621" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H621" s="45">
+      <c r="H621" s="33">
         <f t="shared" si="64"/>
         <v>620</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>0.06</v>
       </c>
       <c r="G622" s="1"/>
-      <c r="H622" s="45">
+      <c r="H622" s="33">
         <f t="shared" si="64"/>
         <v>621</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>0.06</v>
       </c>
       <c r="G623" s="1"/>
-      <c r="H623" s="45">
+      <c r="H623" s="33">
         <f t="shared" si="64"/>
         <v>622</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>0.06</v>
       </c>
       <c r="G624" s="1"/>
-      <c r="H624" s="45">
+      <c r="H624" s="33">
         <f t="shared" si="64"/>
         <v>623</v>
       </c>
@@ -24325,7 +24325,7 @@
         <v>0.06</v>
       </c>
       <c r="G625" s="1"/>
-      <c r="H625" s="45">
+      <c r="H625" s="33">
         <f t="shared" si="64"/>
         <v>624</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>0.06</v>
       </c>
       <c r="G626" s="1"/>
-      <c r="H626" s="45">
+      <c r="H626" s="33">
         <f t="shared" si="64"/>
         <v>625</v>
       </c>
@@ -24387,7 +24387,7 @@
         <v>0.06</v>
       </c>
       <c r="G627" s="1"/>
-      <c r="H627" s="45">
+      <c r="H627" s="33">
         <f t="shared" si="64"/>
         <v>626</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>0.06</v>
       </c>
       <c r="G628" s="1"/>
-      <c r="H628" s="45">
+      <c r="H628" s="33">
         <f t="shared" si="64"/>
         <v>627</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>0.06</v>
       </c>
       <c r="G629" s="1"/>
-      <c r="H629" s="45">
+      <c r="H629" s="33">
         <f t="shared" si="64"/>
         <v>628</v>
       </c>
@@ -24480,7 +24480,7 @@
         <v>0.06</v>
       </c>
       <c r="G630" s="1"/>
-      <c r="H630" s="45">
+      <c r="H630" s="33">
         <f t="shared" si="64"/>
         <v>629</v>
       </c>
@@ -24513,7 +24513,7 @@
       <c r="G631" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H631" s="45">
+      <c r="H631" s="33">
         <f t="shared" si="64"/>
         <v>630</v>
       </c>
@@ -24549,7 +24549,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G632" s="1"/>
-      <c r="H632" s="45">
+      <c r="H632" s="33">
         <f t="shared" si="64"/>
         <v>631</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G633" s="1"/>
-      <c r="H633" s="45">
+      <c r="H633" s="33">
         <f t="shared" si="64"/>
         <v>632</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G634" s="1"/>
-      <c r="H634" s="45">
+      <c r="H634" s="33">
         <f t="shared" si="64"/>
         <v>633</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G635" s="1"/>
-      <c r="H635" s="45">
+      <c r="H635" s="33">
         <f t="shared" si="64"/>
         <v>634</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G636" s="1"/>
-      <c r="H636" s="45">
+      <c r="H636" s="33">
         <f t="shared" si="64"/>
         <v>635</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G637" s="1"/>
-      <c r="H637" s="45">
+      <c r="H637" s="33">
         <f t="shared" si="64"/>
         <v>636</v>
       </c>
@@ -24735,7 +24735,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G638" s="1"/>
-      <c r="H638" s="45">
+      <c r="H638" s="33">
         <f t="shared" si="64"/>
         <v>637</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G639" s="1"/>
-      <c r="H639" s="45">
+      <c r="H639" s="33">
         <f t="shared" si="64"/>
         <v>638</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G640" s="1"/>
-      <c r="H640" s="45">
+      <c r="H640" s="33">
         <f t="shared" si="64"/>
         <v>639</v>
       </c>
@@ -24830,7 +24830,7 @@
       <c r="G641" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H641" s="45">
+      <c r="H641" s="33">
         <f t="shared" si="64"/>
         <v>640</v>
       </c>
@@ -24866,7 +24866,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G642" s="1"/>
-      <c r="H642" s="45">
+      <c r="H642" s="33">
         <f t="shared" si="64"/>
         <v>641</v>
       </c>
@@ -24897,7 +24897,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G643" s="1"/>
-      <c r="H643" s="45">
+      <c r="H643" s="33">
         <f t="shared" si="64"/>
         <v>642</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G644" s="1"/>
-      <c r="H644" s="45">
+      <c r="H644" s="33">
         <f t="shared" si="64"/>
         <v>643</v>
       </c>
@@ -24959,7 +24959,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G645" s="1"/>
-      <c r="H645" s="45">
+      <c r="H645" s="33">
         <f t="shared" si="64"/>
         <v>644</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G646" s="1"/>
-      <c r="H646" s="45">
+      <c r="H646" s="33">
         <f t="shared" si="64"/>
         <v>645</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G647" s="1"/>
-      <c r="H647" s="45">
+      <c r="H647" s="33">
         <f t="shared" si="64"/>
         <v>646</v>
       </c>
@@ -25052,7 +25052,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G648" s="1"/>
-      <c r="H648" s="45">
+      <c r="H648" s="33">
         <f t="shared" si="64"/>
         <v>647</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G649" s="1"/>
-      <c r="H649" s="45">
+      <c r="H649" s="33">
         <f t="shared" si="64"/>
         <v>648</v>
       </c>
@@ -25114,7 +25114,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G650" s="1"/>
-      <c r="H650" s="45">
+      <c r="H650" s="33">
         <f t="shared" si="64"/>
         <v>649</v>
       </c>
@@ -25146,7 +25146,7 @@
       <c r="G651" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H651" s="45">
+      <c r="H651" s="33">
         <f t="shared" si="64"/>
         <v>650</v>
       </c>
@@ -25197,10 +25197,10 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
@@ -25416,10 +25416,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
@@ -42389,15 +42389,15 @@
       </c>
     </row>
     <row r="660" spans="2:7" ht="12" x14ac:dyDescent="0.3">
-      <c r="B660" s="38" t="s">
+      <c r="B660" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C660" s="39"/>
-      <c r="D660" s="38" t="s">
+      <c r="C660" s="41"/>
+      <c r="D660" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E660" s="42"/>
-      <c r="F660" s="39"/>
+      <c r="E660" s="44"/>
+      <c r="F660" s="41"/>
       <c r="G660" s="20"/>
     </row>
     <row r="661" spans="2:7" ht="12" x14ac:dyDescent="0.3">
@@ -42407,11 +42407,11 @@
       <c r="C661" s="12">
         <v>40</v>
       </c>
-      <c r="D661" s="43" t="s">
+      <c r="D661" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E661" s="43"/>
-      <c r="F661" s="43"/>
+      <c r="E661" s="45"/>
+      <c r="F661" s="45"/>
       <c r="G661" s="20"/>
     </row>
   </sheetData>
